--- a/core/utils/cadenderecoLONDRINA.xlsx
+++ b/core/utils/cadenderecoLONDRINA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67BEDC7-4E05-4738-AA7A-57A5CDE32CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79F2355-9C94-4ED5-87C0-9A5793B38E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="663">
   <si>
     <t>ESCOLA</t>
   </si>
@@ -534,9 +534,6 @@
     <t>E. M. - ZUMBI DOS PALMARES - Z. SUL</t>
   </si>
   <si>
-    <t>E. M. R. - MACHADO DE ASSIS - Z. SUL</t>
-  </si>
-  <si>
     <t>E. M. - ANITA GARIBALDI - Z. LESTE</t>
   </si>
   <si>
@@ -976,6 +973,1047 @@
   </si>
   <si>
     <t>09</t>
+  </si>
+  <si>
+    <t>RUA DOMINGOS CANTAGALLI</t>
+  </si>
+  <si>
+    <t>HEIMTAL</t>
+  </si>
+  <si>
+    <t>86001-970</t>
+  </si>
+  <si>
+    <t>3375-0182</t>
+  </si>
+  <si>
+    <t>3375-0114</t>
+  </si>
+  <si>
+    <t>RUA ABÍLIO JUSTINIANO DE QUEIROZ</t>
+  </si>
+  <si>
+    <t>C. H. JOÃO PAZ</t>
+  </si>
+  <si>
+    <t>86087-000</t>
+  </si>
+  <si>
+    <t>Rua Ibraim Souhia</t>
+  </si>
+  <si>
+    <t>JD. PARATI</t>
+  </si>
+  <si>
+    <t>86081-450</t>
+  </si>
+  <si>
+    <t>3375-0124</t>
+  </si>
+  <si>
+    <t>Pq. Ouro Verde</t>
+  </si>
+  <si>
+    <t>86080-120</t>
+  </si>
+  <si>
+    <t>3375-0127</t>
+  </si>
+  <si>
+    <t>C. H. Novo Amparo</t>
+  </si>
+  <si>
+    <t>Rua Maria Garcia Lopes</t>
+  </si>
+  <si>
+    <t>Av. Winston Churchill</t>
+  </si>
+  <si>
+    <t>86087-460</t>
+  </si>
+  <si>
+    <t>3375-0130</t>
+  </si>
+  <si>
+    <t>RUA ALIOMAR  BALEEIRO</t>
+  </si>
+  <si>
+    <t>C. H. Sebastião de Melo César</t>
+  </si>
+  <si>
+    <t>86084-550</t>
+  </si>
+  <si>
+    <t>3375-0173</t>
+  </si>
+  <si>
+    <t>86078-220</t>
+  </si>
+  <si>
+    <t>Jardim Paraíso</t>
+  </si>
+  <si>
+    <t>Rua Ave do Paraíso</t>
+  </si>
+  <si>
+    <t>3375-0134</t>
+  </si>
+  <si>
+    <t>3375-0231</t>
+  </si>
+  <si>
+    <t>RUA JOÃO PANCHONI</t>
+  </si>
+  <si>
+    <t>JD. BELEVILLE</t>
+  </si>
+  <si>
+    <t>86084-240</t>
+  </si>
+  <si>
+    <t>3375-0137</t>
+  </si>
+  <si>
+    <t>RUA JOHN LENNON</t>
+  </si>
+  <si>
+    <t>C. H. VIVI XAVIER</t>
+  </si>
+  <si>
+    <t>86082-116</t>
+  </si>
+  <si>
+    <t>3375-0161</t>
+  </si>
+  <si>
+    <t>RUA GERALDO GONÇALVES DA COSTA</t>
+  </si>
+  <si>
+    <t>C. H. PARIGOT DE SOUZA II</t>
+  </si>
+  <si>
+    <t>86082-340</t>
+  </si>
+  <si>
+    <t>3375-0149</t>
+  </si>
+  <si>
+    <t>AV. FRANCISCO GABRIEL ARRUDA</t>
+  </si>
+  <si>
+    <t>C. H. PARIGOT DE SOUZA I</t>
+  </si>
+  <si>
+    <t>86081-330</t>
+  </si>
+  <si>
+    <t>3375-0163</t>
+  </si>
+  <si>
+    <t>RUA LUIZ BRUGIN</t>
+  </si>
+  <si>
+    <t>C. H. MARIA CECÍLIA</t>
+  </si>
+  <si>
+    <t>86084-690</t>
+  </si>
+  <si>
+    <t>3375-0150</t>
+  </si>
+  <si>
+    <t>RUA AUGUSTO BALLALAI</t>
+  </si>
+  <si>
+    <t>C. H. MILTON GAVETTI</t>
+  </si>
+  <si>
+    <t>86078-030</t>
+  </si>
+  <si>
+    <t>3375-0151</t>
+  </si>
+  <si>
+    <t>RUA LÁZARO JOSÉ C. DE SOUZA</t>
+  </si>
+  <si>
+    <t>C. H. SEMIRAMIS BRAGA</t>
+  </si>
+  <si>
+    <t>86088-070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA DA TERNURA </t>
+  </si>
+  <si>
+    <t>C. H. RUY VIRMOND CARNASCIALLI</t>
+  </si>
+  <si>
+    <t>86077-070</t>
+  </si>
+  <si>
+    <t>3375-0152</t>
+  </si>
+  <si>
+    <t>3375-0136</t>
+  </si>
+  <si>
+    <t>RUA OSMY MUNIZ</t>
+  </si>
+  <si>
+    <t>C. H. HILDA MANDARINO</t>
+  </si>
+  <si>
+    <t>86080-320</t>
+  </si>
+  <si>
+    <t>3375-0174</t>
+  </si>
+  <si>
+    <t>RUA CAFÉ SUMATRA</t>
+  </si>
+  <si>
+    <t>RESIDENCIAL DO CAFÉ</t>
+  </si>
+  <si>
+    <t>86081-290</t>
+  </si>
+  <si>
+    <t>3375-0167</t>
+  </si>
+  <si>
+    <t>RUA FRANCISCO DE ASSIS F. RUIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. H. LUIZ DE SÁ </t>
+  </si>
+  <si>
+    <t>86086-010</t>
+  </si>
+  <si>
+    <t>RUA EDSON RICARDO LIMA</t>
+  </si>
+  <si>
+    <t>3375-0170</t>
+  </si>
+  <si>
+    <t>86000-075</t>
+  </si>
+  <si>
+    <t>AVENIDA PAULO AKAICHI</t>
+  </si>
+  <si>
+    <t>RESIDENCIAL TERRA NOVA</t>
+  </si>
+  <si>
+    <t>86084-025</t>
+  </si>
+  <si>
+    <t>3375-0234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVENIDA PARÍS </t>
+  </si>
+  <si>
+    <t>JARDIM PIZZA</t>
+  </si>
+  <si>
+    <t>86041-120</t>
+  </si>
+  <si>
+    <t>3375-0385</t>
+  </si>
+  <si>
+    <t>3375-0131</t>
+  </si>
+  <si>
+    <t>RUA JORGE RIBEIRO</t>
+  </si>
+  <si>
+    <t>C. H. SÃO LOURENÇO</t>
+  </si>
+  <si>
+    <t>3375-0138</t>
+  </si>
+  <si>
+    <t>RUA OLINTO PEDRIALI</t>
+  </si>
+  <si>
+    <t>C. H. JAMILE DEQUECH</t>
+  </si>
+  <si>
+    <t>86044-734</t>
+  </si>
+  <si>
+    <t>3375-0050</t>
+  </si>
+  <si>
+    <t>RUA GUILHERME FAREL</t>
+  </si>
+  <si>
+    <t>GLEBA FAZENDA PALHANO</t>
+  </si>
+  <si>
+    <t>86055-650</t>
+  </si>
+  <si>
+    <t>3375-0129</t>
+  </si>
+  <si>
+    <t>AVENIDA PRESIDENTE ABRAHAN LINCOLN</t>
+  </si>
+  <si>
+    <t>C. H. ANÍBAL S. CABRAL</t>
+  </si>
+  <si>
+    <t>86049-090</t>
+  </si>
+  <si>
+    <t>3375-0319</t>
+  </si>
+  <si>
+    <t>RODOVIA JOÃO ALVES DA ROCHA LOURES</t>
+  </si>
+  <si>
+    <t>JARDIM CRISTAL</t>
+  </si>
+  <si>
+    <t>86041-271</t>
+  </si>
+  <si>
+    <t>3375-0145</t>
+  </si>
+  <si>
+    <t>RUA MAURÍCIO DE NASSAU</t>
+  </si>
+  <si>
+    <t>JARDIM MAZZEI</t>
+  </si>
+  <si>
+    <t>86015-720</t>
+  </si>
+  <si>
+    <t>3375-0166</t>
+  </si>
+  <si>
+    <t>RUA PITÁGORAS</t>
+  </si>
+  <si>
+    <t>JARDIM ELDORADO</t>
+  </si>
+  <si>
+    <t>86040-130</t>
+  </si>
+  <si>
+    <t>3375-0155</t>
+  </si>
+  <si>
+    <t>RUA MONTEVIDÉU</t>
+  </si>
+  <si>
+    <t>JARDIM SANTA ROSA</t>
+  </si>
+  <si>
+    <t>86050-020</t>
+  </si>
+  <si>
+    <t>3375-0156</t>
+  </si>
+  <si>
+    <t>RUA LEÔNIDAS REZENDE DUTRA</t>
+  </si>
+  <si>
+    <t>3375-0171</t>
+  </si>
+  <si>
+    <t>RUA MARIA DE OLIVEIRA MELLO</t>
+  </si>
+  <si>
+    <t>JARDIM SAN IZIDRO</t>
+  </si>
+  <si>
+    <t>86040-500</t>
+  </si>
+  <si>
+    <t>3375-0298</t>
+  </si>
+  <si>
+    <t>RUA DOS ASSISTENTES SOCIAIS</t>
+  </si>
+  <si>
+    <t>JARDIM UNIÃO DA VITÓRIA IV</t>
+  </si>
+  <si>
+    <t>86044-402</t>
+  </si>
+  <si>
+    <t>E. M. - MACHADO DE ASSIS - Z. SUL</t>
+  </si>
+  <si>
+    <t>3375-0341</t>
+  </si>
+  <si>
+    <t>RUA EMÍLIO MAHLER (RUA DOS FUNDOS)</t>
+  </si>
+  <si>
+    <t>RUA DOS FUNDOS</t>
+  </si>
+  <si>
+    <t>RES. BURITI</t>
+  </si>
+  <si>
+    <t>86044-620</t>
+  </si>
+  <si>
+    <t>3375-0226</t>
+  </si>
+  <si>
+    <t>RUA SANTA LÍDIA</t>
+  </si>
+  <si>
+    <t>JARDIM ESPANHA</t>
+  </si>
+  <si>
+    <t>86027-560</t>
+  </si>
+  <si>
+    <t>3375-0266</t>
+  </si>
+  <si>
+    <t>RUA GOIÁS</t>
+  </si>
+  <si>
+    <t>CENTRO</t>
+  </si>
+  <si>
+    <t>86010-460</t>
+  </si>
+  <si>
+    <t>3375-0164</t>
+  </si>
+  <si>
+    <t>RUA CARMEM ROMERO</t>
+  </si>
+  <si>
+    <t>C. H. JOSÉ MAURÍCIO BARROSO</t>
+  </si>
+  <si>
+    <t>86031-570</t>
+  </si>
+  <si>
+    <t>3375-0119</t>
+  </si>
+  <si>
+    <t>RUA SÃO JOÃO</t>
+  </si>
+  <si>
+    <t>CERVEJARIA</t>
+  </si>
+  <si>
+    <t>86036-030</t>
+  </si>
+  <si>
+    <t>3375-0122</t>
+  </si>
+  <si>
+    <t>RUA MARACAÍ</t>
+  </si>
+  <si>
+    <t>JARDIM CASTELO</t>
+  </si>
+  <si>
+    <t>86027-290</t>
+  </si>
+  <si>
+    <t>3375-0158</t>
+  </si>
+  <si>
+    <t>RUA BUTIÁ</t>
+  </si>
+  <si>
+    <t>JARDIM MARABÁ</t>
+  </si>
+  <si>
+    <t>86035-700</t>
+  </si>
+  <si>
+    <t>3375-0132</t>
+  </si>
+  <si>
+    <t>RUA ALVORADA</t>
+  </si>
+  <si>
+    <t>VILA RECREIO</t>
+  </si>
+  <si>
+    <t>86025-220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JARDIM SANTA JOANA </t>
+  </si>
+  <si>
+    <t>86044-130</t>
+  </si>
+  <si>
+    <t>3375-0133</t>
+  </si>
+  <si>
+    <t>RUA ODÍLIA ALVES PEDRA</t>
+  </si>
+  <si>
+    <t>C. H. GUILHERME BRAGA PIRES</t>
+  </si>
+  <si>
+    <t>86037-240</t>
+  </si>
+  <si>
+    <t>3375-0135</t>
+  </si>
+  <si>
+    <t>RUA ORLANDO SILVA</t>
+  </si>
+  <si>
+    <t>VILA ISABEL</t>
+  </si>
+  <si>
+    <t>86031-010</t>
+  </si>
+  <si>
+    <t>3375-0140</t>
+  </si>
+  <si>
+    <t>RUA PITANGUEIRAS</t>
+  </si>
+  <si>
+    <t>JARDIM PANORAMA</t>
+  </si>
+  <si>
+    <t>86035-100</t>
+  </si>
+  <si>
+    <t>3375-0185</t>
+  </si>
+  <si>
+    <t>RUA ADELINA MIOLA LOPES</t>
+  </si>
+  <si>
+    <t>JARDIM SANTA FÉ</t>
+  </si>
+  <si>
+    <t>86035-720</t>
+  </si>
+  <si>
+    <t>3375-0200</t>
+  </si>
+  <si>
+    <t>RUA MARIA ABUCARUB ANTOUN</t>
+  </si>
+  <si>
+    <t>C. H. ALEXANDRE URBANAS</t>
+  </si>
+  <si>
+    <t>86037-720</t>
+  </si>
+  <si>
+    <t>3375-0148</t>
+  </si>
+  <si>
+    <t>RUA BARTIRA</t>
+  </si>
+  <si>
+    <t>C. H. ANTARES</t>
+  </si>
+  <si>
+    <t>86036-430</t>
+  </si>
+  <si>
+    <t>3375-0157</t>
+  </si>
+  <si>
+    <t>RUA ANTÔNIA MARTINS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>C. H. MIISTER THOMAS</t>
+  </si>
+  <si>
+    <t>86031-420</t>
+  </si>
+  <si>
+    <t>3375-0251</t>
+  </si>
+  <si>
+    <t>RUA AKEO HASUDA</t>
+  </si>
+  <si>
+    <t>CIDADE INDUSTRIAL 2</t>
+  </si>
+  <si>
+    <t>86036-704</t>
+  </si>
+  <si>
+    <t>3375-0014</t>
+  </si>
+  <si>
+    <t>RUA MÁXIMO PERES GARCIA</t>
+  </si>
+  <si>
+    <t>JARDIM SÃO VICENTE PALOTTI</t>
+  </si>
+  <si>
+    <t>86037-294</t>
+  </si>
+  <si>
+    <t>3375-0175</t>
+  </si>
+  <si>
+    <t>RUA ARARAS</t>
+  </si>
+  <si>
+    <t>CONJUNTO VITÓRIA RÉGIA</t>
+  </si>
+  <si>
+    <t>86038-190</t>
+  </si>
+  <si>
+    <t>3375-0066</t>
+  </si>
+  <si>
+    <t>AVENIDA JK</t>
+  </si>
+  <si>
+    <t>86020-000</t>
+  </si>
+  <si>
+    <t>3375-0123</t>
+  </si>
+  <si>
+    <t>RUA LOURENÇO DA VEIGA</t>
+  </si>
+  <si>
+    <t>JARDIM SABARÁ</t>
+  </si>
+  <si>
+    <t>86066-130</t>
+  </si>
+  <si>
+    <t>3375-0125</t>
+  </si>
+  <si>
+    <t>RUA  LINDÓIA</t>
+  </si>
+  <si>
+    <t>PARQUE ALVORADA</t>
+  </si>
+  <si>
+    <t>86062-480</t>
+  </si>
+  <si>
+    <t>3375-0190</t>
+  </si>
+  <si>
+    <t>RUA SINODE BIGHINATTI</t>
+  </si>
+  <si>
+    <t>CONJUNTO AVELINO VIEIRA</t>
+  </si>
+  <si>
+    <t>86056-160</t>
+  </si>
+  <si>
+    <t>3375-0139</t>
+  </si>
+  <si>
+    <t>RUA ALFRED B. NOBEL</t>
+  </si>
+  <si>
+    <t>VILA INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>86063-420</t>
+  </si>
+  <si>
+    <t>3375-0070</t>
+  </si>
+  <si>
+    <t>RUA SERRA DA TABATINGA</t>
+  </si>
+  <si>
+    <t>JARDIM BANDEIRANTES</t>
+  </si>
+  <si>
+    <t>86065-190</t>
+  </si>
+  <si>
+    <t>3375-0162</t>
+  </si>
+  <si>
+    <t>RUA JEQUITIBÁ</t>
+  </si>
+  <si>
+    <t>JARDIM LEONOR</t>
+  </si>
+  <si>
+    <t>86071-130</t>
+  </si>
+  <si>
+    <t>3375-0141</t>
+  </si>
+  <si>
+    <t>RUA QUIRI</t>
+  </si>
+  <si>
+    <t>JARDIM SANTA RITA</t>
+  </si>
+  <si>
+    <t>86071-480</t>
+  </si>
+  <si>
+    <t>3375-0165</t>
+  </si>
+  <si>
+    <t>RUA JOSÉ BORALLI</t>
+  </si>
+  <si>
+    <t>86071-720</t>
+  </si>
+  <si>
+    <t>3375-0314</t>
+  </si>
+  <si>
+    <t>RUA MIDORI KOGA</t>
+  </si>
+  <si>
+    <t>JARDIM SANTA RITA VI</t>
+  </si>
+  <si>
+    <t>86072-480</t>
+  </si>
+  <si>
+    <t>3375-0147</t>
+  </si>
+  <si>
+    <t>RUA AFONSO PENA</t>
+  </si>
+  <si>
+    <t>JARDIM HEDI</t>
+  </si>
+  <si>
+    <t>86062-140</t>
+  </si>
+  <si>
+    <t>3375-0115</t>
+  </si>
+  <si>
+    <t>RUA DARCÍRIO EGGER</t>
+  </si>
+  <si>
+    <t>JARDIM SHANGRI-LÁ B</t>
+  </si>
+  <si>
+    <t>86070-070</t>
+  </si>
+  <si>
+    <t>3375-0153</t>
+  </si>
+  <si>
+    <t>RUA DRAGEN FELD</t>
+  </si>
+  <si>
+    <t>JARDIM TÓKIO</t>
+  </si>
+  <si>
+    <t>86063-310</t>
+  </si>
+  <si>
+    <t>3375-0154</t>
+  </si>
+  <si>
+    <t>RUA GINÁSTICA OLÍMPICA</t>
+  </si>
+  <si>
+    <t>JARDIM OLÍMPICO</t>
+  </si>
+  <si>
+    <t>86056-260</t>
+  </si>
+  <si>
+    <t>3375-0169</t>
+  </si>
+  <si>
+    <t>RUA ADULCINO JOSÉ JORDÃO</t>
+  </si>
+  <si>
+    <t>JARDIM DO SOL</t>
+  </si>
+  <si>
+    <t>86070-150</t>
+  </si>
+  <si>
+    <t>3375-0206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA CAMILO SIMÕES </t>
+  </si>
+  <si>
+    <t>PARQUE UNIVERSIDADE</t>
+  </si>
+  <si>
+    <t>86056-680</t>
+  </si>
+  <si>
+    <t>3375-0172</t>
+  </si>
+  <si>
+    <t>RUA MICHAEL FARADAY</t>
+  </si>
+  <si>
+    <t>86063-470</t>
+  </si>
+  <si>
+    <t>3375-0142</t>
+  </si>
+  <si>
+    <t>RUA FLOR DE LÓTUS</t>
+  </si>
+  <si>
+    <t>PARQUE OURO BRANCO</t>
+  </si>
+  <si>
+    <t>86042-090</t>
+  </si>
+  <si>
+    <t>3339-0021</t>
+  </si>
+  <si>
+    <t>RUA SEVERINO SANTINI</t>
+  </si>
+  <si>
+    <t>CONJUNTO SEMIRAMIS</t>
+  </si>
+  <si>
+    <t>86088-120</t>
+  </si>
+  <si>
+    <t>3336-6465</t>
+  </si>
+  <si>
+    <t>RUA VERGÍLIO PERIN</t>
+  </si>
+  <si>
+    <t>CONJUNTO AQUILES STENGHEL</t>
+  </si>
+  <si>
+    <t>86086-070</t>
+  </si>
+  <si>
+    <t>3337-1798</t>
+  </si>
+  <si>
+    <t>RUA PELICANO</t>
+  </si>
+  <si>
+    <t>86078-550</t>
+  </si>
+  <si>
+    <t>JARDIM PARAÍSO</t>
+  </si>
+  <si>
+    <t>3321-3241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA DOUTOR JUVENAL EGGER FILHO </t>
+  </si>
+  <si>
+    <t>CONJUNTO FARID LIBOS</t>
+  </si>
+  <si>
+    <t>86087-200</t>
+  </si>
+  <si>
+    <t>RUA LUIZ GOMES DA SILVA</t>
+  </si>
+  <si>
+    <t>CONJUNTO JOÃO PAZ</t>
+  </si>
+  <si>
+    <t>86087-120</t>
+  </si>
+  <si>
+    <t>3326-2773</t>
+  </si>
+  <si>
+    <t>3334-3840</t>
+  </si>
+  <si>
+    <t>RUA MARIA SINÓPOLI FRANCOVIG</t>
+  </si>
+  <si>
+    <t>86088-080</t>
+  </si>
+  <si>
+    <t>3357-2939</t>
+  </si>
+  <si>
+    <t>RUA SÃO CRISTOVÃO</t>
+  </si>
+  <si>
+    <t>S/Nº</t>
+  </si>
+  <si>
+    <t>CILO III</t>
+  </si>
+  <si>
+    <t>86073-062</t>
+  </si>
+  <si>
+    <t>3337-9081</t>
+  </si>
+  <si>
+    <t>RUA ALCIDES SIMÃO SANTIAGO</t>
+  </si>
+  <si>
+    <t>CONJUNTO MARIA CECÍLIA</t>
+  </si>
+  <si>
+    <t>86085-380</t>
+  </si>
+  <si>
+    <t>3348-7618</t>
+  </si>
+  <si>
+    <t>AVENIDA DOS GARIS</t>
+  </si>
+  <si>
+    <t>CONJUNTO CHEFE NEWTON</t>
+  </si>
+  <si>
+    <t>86082-550</t>
+  </si>
+  <si>
+    <t>3348-8588</t>
+  </si>
+  <si>
+    <t>RUA AURÉLIO BUARQUE DE HOLANDA</t>
+  </si>
+  <si>
+    <t>CONJ. PARIGOT DE SOUZA III</t>
+  </si>
+  <si>
+    <t>86082-520</t>
+  </si>
+  <si>
+    <t>3334-1740</t>
+  </si>
+  <si>
+    <t>RUA LUÍS VICENTE AMADEU GONGORA</t>
+  </si>
+  <si>
+    <t>CONJUNTO HABITACIONAL MILTON GAVETTI</t>
+  </si>
+  <si>
+    <t>86078-440</t>
+  </si>
+  <si>
+    <t>3329-7287</t>
+  </si>
+  <si>
+    <t>RUA DO PELICANO</t>
+  </si>
+  <si>
+    <t>86078-190</t>
+  </si>
+  <si>
+    <t>3336-4072</t>
+  </si>
+  <si>
+    <t>RUA MÁRIO BOTURA</t>
+  </si>
+  <si>
+    <t>JARDIM ALPHAVILLE</t>
+  </si>
+  <si>
+    <t>86084-370</t>
+  </si>
+  <si>
+    <t>3325-0357</t>
+  </si>
+  <si>
+    <t>RUA SPARTAGO FERRARESI</t>
+  </si>
+  <si>
+    <t>JARDIM SANTA CRUZ</t>
+  </si>
+  <si>
+    <t>86084-625</t>
+  </si>
+  <si>
+    <t>3347-3499</t>
+  </si>
+  <si>
+    <t>RUA BASÍLIO ZANIN</t>
+  </si>
+  <si>
+    <t>CONJUNTO JOSÉ GIORDANO</t>
+  </si>
+  <si>
+    <t>3338-4228</t>
+  </si>
+  <si>
+    <t>CONJUNTO VIVI XAVIER</t>
+  </si>
+  <si>
+    <t>86082-105</t>
+  </si>
+  <si>
+    <t>3371-4386</t>
+  </si>
+  <si>
+    <t>RODOVIA CELSO GARCIA CID</t>
+  </si>
+  <si>
+    <t>KM 379</t>
+  </si>
+  <si>
+    <t>PR 445</t>
+  </si>
+  <si>
+    <t>86057-970</t>
+  </si>
+  <si>
+    <t>3341-4335</t>
+  </si>
+  <si>
+    <t>RUA ELSON PEDRO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>86044-300</t>
+  </si>
+  <si>
+    <t>3325-2442</t>
+  </si>
+  <si>
+    <t>RUA HIKOMA UDIHARA</t>
+  </si>
+  <si>
+    <t>JARDIM SAN FERNANDO</t>
+  </si>
+  <si>
+    <t>86040-340</t>
+  </si>
+  <si>
+    <t>3341-6762</t>
+  </si>
+  <si>
+    <t>RUA DEPUTADO AGNALDO PEREIRA LIMA</t>
+  </si>
+  <si>
+    <t>CONJUNTO ROSEIRA</t>
+  </si>
+  <si>
+    <t>86041-310</t>
+  </si>
+  <si>
+    <t>3341-0136</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +2194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,7 +2303,7 @@
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1351,17 +2389,20 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="9" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="9" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1693,23 +2734,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DA9257-B4D5-4E5C-82C2-6ED4623D6343}">
   <dimension ref="A1:AE366"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3"/>
-    <col min="2" max="2" width="9.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5" style="32" customWidth="1"/>
+    <col min="4" max="4" width="45" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="46.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="26.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="41.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="3" customWidth="1"/>
     <col min="11" max="11" width="25.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="14.140625" style="3" customWidth="1"/>
     <col min="13" max="16384" width="16.28515625" style="3"/>
@@ -1722,7 +2764,7 @@
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="18" t="s">
@@ -1776,30 +2818,40 @@
     </row>
     <row r="2" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="G2" s="21">
+        <v>450</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L2" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M2" s="29" t="s">
         <v>1</v>
@@ -1825,30 +2877,40 @@
     </row>
     <row r="3" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="G3" s="21">
+        <v>905</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M3" s="29" t="s">
         <v>1</v>
@@ -1874,30 +2936,40 @@
     </row>
     <row r="4" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="G4" s="21">
+        <v>53</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L4" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M4" s="29" t="s">
         <v>1</v>
@@ -1923,30 +2995,40 @@
     </row>
     <row r="5" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="G5" s="21">
+        <v>261</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L5" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M5" s="29" t="s">
         <v>1</v>
@@ -1972,30 +3054,40 @@
     </row>
     <row r="6" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="G6" s="21">
+        <v>13</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L6" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M6" s="29" t="s">
         <v>1</v>
@@ -2021,30 +3113,40 @@
     </row>
     <row r="7" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="G7" s="21">
+        <v>80</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L7" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M7" s="29" t="s">
         <v>1</v>
@@ -2070,30 +3172,40 @@
     </row>
     <row r="8" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="G8" s="21">
+        <v>531</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L8" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M8" s="29" t="s">
         <v>1</v>
@@ -2119,30 +3231,40 @@
     </row>
     <row r="9" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L9" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M9" s="29" t="s">
         <v>1</v>
@@ -2168,30 +3290,40 @@
     </row>
     <row r="10" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="G10" s="21">
+        <v>258</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L10" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M10" s="29" t="s">
         <v>1</v>
@@ -2217,30 +3349,40 @@
     </row>
     <row r="11" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="G11" s="21">
+        <v>450</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L11" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M11" s="29" t="s">
         <v>1</v>
@@ -2266,30 +3408,40 @@
     </row>
     <row r="12" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="34">
+        <v>10</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>622</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1050</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L12" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="C12" s="33">
-        <v>10</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M12" s="29" t="s">
         <v>1</v>
@@ -2315,30 +3467,40 @@
     </row>
     <row r="13" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="34">
+        <v>11</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="G13" s="21">
+        <v>22</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L13" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="C13" s="33">
-        <v>11</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M13" s="29" t="s">
         <v>1</v>
@@ -2364,30 +3526,40 @@
     </row>
     <row r="14" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="34">
+        <v>12</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="G14" s="21">
+        <v>820</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L14" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="C14" s="33">
-        <v>12</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M14" s="29" t="s">
         <v>1</v>
@@ -2413,30 +3585,40 @@
     </row>
     <row r="15" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="34">
+        <v>13</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="G15" s="21">
+        <v>50</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>635</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L15" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="33">
-        <v>13</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M15" s="29" t="s">
         <v>1</v>
@@ -2462,30 +3644,40 @@
     </row>
     <row r="16" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="34">
+        <v>14</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="G16" s="21">
+        <v>69</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L16" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="C16" s="33">
-        <v>14</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L16" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M16" s="29" t="s">
         <v>1</v>
@@ -2511,30 +3703,40 @@
     </row>
     <row r="17" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C17" s="34">
+        <v>15</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="G17" s="21">
+        <v>188</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L17" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="C17" s="33">
-        <v>15</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M17" s="29" t="s">
         <v>1</v>
@@ -2560,19 +3762,19 @@
     </row>
     <row r="18" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B18" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="34">
         <v>16</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="33" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -2580,10 +3782,10 @@
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L18" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M18" s="29" t="s">
         <v>1</v>
@@ -2609,30 +3811,40 @@
     </row>
     <row r="19" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="34">
+        <v>17</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L19" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="33">
-        <v>17</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L19" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M19" s="29" t="s">
         <v>1</v>
@@ -2658,30 +3870,40 @@
     </row>
     <row r="20" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="34">
+        <v>18</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="G20" s="21">
+        <v>205</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L20" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="33">
-        <v>18</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M20" s="29" t="s">
         <v>1</v>
@@ -2707,30 +3929,40 @@
     </row>
     <row r="21" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="34">
+        <v>19</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="G21" s="21">
+        <v>78</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L21" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="33">
-        <v>19</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L21" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M21" s="29" t="s">
         <v>1</v>
@@ -2756,30 +3988,40 @@
     </row>
     <row r="22" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="34">
+        <v>20</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="G22" s="21">
+        <v>50</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L22" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="33">
-        <v>20</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M22" s="29" t="s">
         <v>1</v>
@@ -2805,19 +4047,19 @@
     </row>
     <row r="23" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B23" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="34">
         <v>21</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>266</v>
+        <v>662</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="21"/>
@@ -2825,10 +4067,10 @@
       <c r="I23" s="26"/>
       <c r="J23" s="21"/>
       <c r="K23" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L23" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L23" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>1</v>
@@ -2854,19 +4096,19 @@
     </row>
     <row r="24" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B24" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="34">
         <v>22</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="33" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="21"/>
@@ -2874,10 +4116,10 @@
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L24" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L24" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M24" s="29" t="s">
         <v>1</v>
@@ -2903,19 +4145,19 @@
     </row>
     <row r="25" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B25" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="34">
         <v>23</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="33" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="21"/>
@@ -2923,10 +4165,10 @@
       <c r="I25" s="26"/>
       <c r="J25" s="21"/>
       <c r="K25" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L25" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L25" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M25" s="29" t="s">
         <v>1</v>
@@ -2952,19 +4194,19 @@
     </row>
     <row r="26" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B26" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="34">
         <v>24</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="21"/>
@@ -2972,10 +4214,10 @@
       <c r="I26" s="26"/>
       <c r="J26" s="21"/>
       <c r="K26" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L26" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L26" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M26" s="29" t="s">
         <v>1</v>
@@ -3001,19 +4243,19 @@
     </row>
     <row r="27" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B27" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="34">
         <v>25</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="33" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -3021,10 +4263,10 @@
       <c r="I27" s="26"/>
       <c r="J27" s="21"/>
       <c r="K27" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L27" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L27" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M27" s="29" t="s">
         <v>1</v>
@@ -3050,19 +4292,19 @@
     </row>
     <row r="28" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B28" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="34">
         <v>26</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="33" t="s">
         <v>39</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="21"/>
@@ -3070,10 +4312,10 @@
       <c r="I28" s="26"/>
       <c r="J28" s="21"/>
       <c r="K28" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L28" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L28" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>1</v>
@@ -3099,19 +4341,19 @@
     </row>
     <row r="29" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B29" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="34">
         <v>27</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="33" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="21"/>
@@ -3119,10 +4361,10 @@
       <c r="I29" s="26"/>
       <c r="J29" s="21"/>
       <c r="K29" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L29" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L29" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M29" s="29" t="s">
         <v>1</v>
@@ -3148,19 +4390,19 @@
     </row>
     <row r="30" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B30" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="34">
         <v>28</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="21"/>
@@ -3168,10 +4410,10 @@
       <c r="I30" s="26"/>
       <c r="J30" s="21"/>
       <c r="K30" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L30" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L30" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M30" s="29" t="s">
         <v>1</v>
@@ -3197,19 +4439,19 @@
     </row>
     <row r="31" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B31" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="34">
         <v>29</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="33" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="21"/>
@@ -3217,10 +4459,10 @@
       <c r="I31" s="26"/>
       <c r="J31" s="21"/>
       <c r="K31" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L31" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L31" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M31" s="29" t="s">
         <v>1</v>
@@ -3246,19 +4488,19 @@
     </row>
     <row r="32" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B32" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="34">
         <v>30</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="33" t="s">
         <v>47</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="21"/>
@@ -3266,10 +4508,10 @@
       <c r="I32" s="26"/>
       <c r="J32" s="21"/>
       <c r="K32" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L32" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L32" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M32" s="29" t="s">
         <v>1</v>
@@ -3295,19 +4537,19 @@
     </row>
     <row r="33" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B33" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="34">
         <v>31</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="33" t="s">
         <v>49</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="21"/>
@@ -3315,10 +4557,10 @@
       <c r="I33" s="26"/>
       <c r="J33" s="21"/>
       <c r="K33" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L33" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L33" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M33" s="29" t="s">
         <v>1</v>
@@ -3344,19 +4586,19 @@
     </row>
     <row r="34" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B34" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B34" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="34">
         <v>32</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="21"/>
@@ -3364,10 +4606,10 @@
       <c r="I34" s="26"/>
       <c r="J34" s="21"/>
       <c r="K34" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L34" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L34" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M34" s="29" t="s">
         <v>1</v>
@@ -3393,19 +4635,19 @@
     </row>
     <row r="35" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B35" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B35" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="34">
         <v>33</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="33" t="s">
         <v>53</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="21"/>
@@ -3413,10 +4655,10 @@
       <c r="I35" s="26"/>
       <c r="J35" s="21"/>
       <c r="K35" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L35" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L35" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M35" s="29" t="s">
         <v>1</v>
@@ -3442,19 +4684,19 @@
     </row>
     <row r="36" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B36" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="34">
         <v>34</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="33" t="s">
         <v>55</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="21"/>
@@ -3462,10 +4704,10 @@
       <c r="I36" s="26"/>
       <c r="J36" s="21"/>
       <c r="K36" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L36" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L36" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M36" s="29" t="s">
         <v>1</v>
@@ -3491,19 +4733,19 @@
     </row>
     <row r="37" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B37" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="34">
         <v>35</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="33" t="s">
         <v>57</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="21"/>
@@ -3511,10 +4753,10 @@
       <c r="I37" s="26"/>
       <c r="J37" s="21"/>
       <c r="K37" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L37" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L37" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M37" s="29" t="s">
         <v>1</v>
@@ -3540,19 +4782,19 @@
     </row>
     <row r="38" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B38" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B38" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="34">
         <v>36</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="21"/>
@@ -3560,10 +4802,10 @@
       <c r="I38" s="26"/>
       <c r="J38" s="21"/>
       <c r="K38" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L38" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L38" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M38" s="29" t="s">
         <v>1</v>
@@ -3589,19 +4831,19 @@
     </row>
     <row r="39" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B39" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="34">
         <v>37</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="21"/>
@@ -3609,10 +4851,10 @@
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L39" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L39" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M39" s="29" t="s">
         <v>1</v>
@@ -3638,19 +4880,19 @@
     </row>
     <row r="40" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B40" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B40" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="34">
         <v>38</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="33" t="s">
         <v>63</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="21"/>
@@ -3658,10 +4900,10 @@
       <c r="I40" s="26"/>
       <c r="J40" s="21"/>
       <c r="K40" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L40" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L40" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M40" s="29" t="s">
         <v>1</v>
@@ -3687,19 +4929,19 @@
     </row>
     <row r="41" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B41" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="34">
         <v>39</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="33" t="s">
         <v>65</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="21"/>
@@ -3707,10 +4949,10 @@
       <c r="I41" s="26"/>
       <c r="J41" s="21"/>
       <c r="K41" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L41" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L41" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M41" s="29" t="s">
         <v>1</v>
@@ -3736,19 +4978,19 @@
     </row>
     <row r="42" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B42" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="34">
         <v>40</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="21"/>
@@ -3756,10 +4998,10 @@
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L42" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L42" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M42" s="29" t="s">
         <v>1</v>
@@ -3785,19 +5027,19 @@
     </row>
     <row r="43" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B43" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="34">
         <v>41</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="33" t="s">
         <v>69</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="21"/>
@@ -3805,10 +5047,10 @@
       <c r="I43" s="26"/>
       <c r="J43" s="21"/>
       <c r="K43" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L43" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L43" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M43" s="29" t="s">
         <v>1</v>
@@ -3834,19 +5076,19 @@
     </row>
     <row r="44" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B44" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="34">
         <v>42</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="33" t="s">
         <v>71</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="21"/>
@@ -3854,10 +5096,10 @@
       <c r="I44" s="26"/>
       <c r="J44" s="21"/>
       <c r="K44" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L44" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L44" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M44" s="29" t="s">
         <v>1</v>
@@ -3883,19 +5125,19 @@
     </row>
     <row r="45" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B45" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C45" s="34">
         <v>43</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="33" t="s">
         <v>73</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="21"/>
@@ -3903,10 +5145,10 @@
       <c r="I45" s="26"/>
       <c r="J45" s="21"/>
       <c r="K45" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L45" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L45" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M45" s="29" t="s">
         <v>1</v>
@@ -3932,19 +5174,19 @@
     </row>
     <row r="46" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B46" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B46" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="33">
+      <c r="C46" s="34">
         <v>44</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="33" t="s">
         <v>75</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="21"/>
@@ -3952,10 +5194,10 @@
       <c r="I46" s="26"/>
       <c r="J46" s="21"/>
       <c r="K46" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L46" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L46" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M46" s="29" t="s">
         <v>1</v>
@@ -3981,19 +5223,19 @@
     </row>
     <row r="47" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B47" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B47" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="34">
         <v>45</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="33" t="s">
         <v>77</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="21"/>
@@ -4001,10 +5243,10 @@
       <c r="I47" s="26"/>
       <c r="J47" s="21"/>
       <c r="K47" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L47" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L47" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M47" s="29" t="s">
         <v>1</v>
@@ -4030,19 +5272,19 @@
     </row>
     <row r="48" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B48" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B48" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="33">
+      <c r="C48" s="34">
         <v>46</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="33" t="s">
         <v>79</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="21"/>
@@ -4050,10 +5292,10 @@
       <c r="I48" s="26"/>
       <c r="J48" s="21"/>
       <c r="K48" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L48" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L48" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M48" s="29" t="s">
         <v>1</v>
@@ -4079,19 +5321,19 @@
     </row>
     <row r="49" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B49" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B49" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="33">
+      <c r="C49" s="34">
         <v>47</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="33" t="s">
         <v>81</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="21"/>
@@ -4099,10 +5341,10 @@
       <c r="I49" s="26"/>
       <c r="J49" s="21"/>
       <c r="K49" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L49" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L49" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M49" s="29" t="s">
         <v>1</v>
@@ -4128,19 +5370,19 @@
     </row>
     <row r="50" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B50" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B50" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="33">
+      <c r="C50" s="34">
         <v>48</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="33" t="s">
         <v>83</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="21"/>
@@ -4148,10 +5390,10 @@
       <c r="I50" s="26"/>
       <c r="J50" s="21"/>
       <c r="K50" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L50" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L50" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M50" s="29" t="s">
         <v>1</v>
@@ -4177,19 +5419,19 @@
     </row>
     <row r="51" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B51" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B51" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="33">
+      <c r="C51" s="34">
         <v>49</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="21"/>
@@ -4197,10 +5439,10 @@
       <c r="I51" s="26"/>
       <c r="J51" s="21"/>
       <c r="K51" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L51" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L51" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M51" s="29" t="s">
         <v>1</v>
@@ -4226,19 +5468,19 @@
     </row>
     <row r="52" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B52" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B52" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="33">
+      <c r="C52" s="34">
         <v>50</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="21"/>
@@ -4246,10 +5488,10 @@
       <c r="I52" s="26"/>
       <c r="J52" s="21"/>
       <c r="K52" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L52" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L52" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M52" s="29" t="s">
         <v>1</v>
@@ -4275,19 +5517,19 @@
     </row>
     <row r="53" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B53" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B53" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="33">
+      <c r="C53" s="34">
         <v>51</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F53" s="26"/>
       <c r="G53" s="21"/>
@@ -4295,10 +5537,10 @@
       <c r="I53" s="26"/>
       <c r="J53" s="21"/>
       <c r="K53" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L53" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L53" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M53" s="29" t="s">
         <v>1</v>
@@ -4324,19 +5566,19 @@
     </row>
     <row r="54" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B54" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C54" s="34">
+        <v>52</v>
+      </c>
+      <c r="D54" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="C54" s="33">
-        <v>52</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>296</v>
-      </c>
       <c r="E54" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="21"/>
@@ -4344,10 +5586,10 @@
       <c r="I54" s="26"/>
       <c r="J54" s="21"/>
       <c r="K54" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L54" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L54" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M54" s="29" t="s">
         <v>1</v>
@@ -4373,19 +5615,19 @@
     </row>
     <row r="55" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B55" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C55" s="34">
+        <v>53</v>
+      </c>
+      <c r="D55" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="C55" s="33">
-        <v>53</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>298</v>
-      </c>
       <c r="E55" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="21"/>
@@ -4393,10 +5635,10 @@
       <c r="I55" s="26"/>
       <c r="J55" s="21"/>
       <c r="K55" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L55" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L55" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M55" s="29" t="s">
         <v>1</v>
@@ -4422,19 +5664,19 @@
     </row>
     <row r="56" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B56" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C56" s="34">
+        <v>54</v>
+      </c>
+      <c r="D56" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="C56" s="33">
-        <v>54</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>300</v>
-      </c>
       <c r="E56" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="21"/>
@@ -4442,10 +5684,10 @@
       <c r="I56" s="26"/>
       <c r="J56" s="21"/>
       <c r="K56" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L56" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L56" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M56" s="29" t="s">
         <v>1</v>
@@ -4471,19 +5713,19 @@
     </row>
     <row r="57" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B57" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C57" s="34">
+        <v>55</v>
+      </c>
+      <c r="D57" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="C57" s="33">
-        <v>55</v>
-      </c>
-      <c r="D57" s="31" t="s">
-        <v>302</v>
-      </c>
       <c r="E57" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="21"/>
@@ -4491,10 +5733,10 @@
       <c r="I57" s="26"/>
       <c r="J57" s="21"/>
       <c r="K57" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L57" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L57" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M57" s="29" t="s">
         <v>1</v>
@@ -4520,19 +5762,19 @@
     </row>
     <row r="58" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B58" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B58" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="34">
         <v>56</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="33" t="s">
         <v>91</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="21"/>
@@ -4540,10 +5782,10 @@
       <c r="I58" s="30"/>
       <c r="J58" s="21"/>
       <c r="K58" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L58" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L58" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M58" s="29" t="s">
         <v>1</v>
@@ -4569,19 +5811,19 @@
     </row>
     <row r="59" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B59" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="33">
+      <c r="C59" s="34">
         <v>57</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="33" t="s">
         <v>93</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F59" s="30"/>
       <c r="G59" s="21"/>
@@ -4589,10 +5831,10 @@
       <c r="I59" s="30"/>
       <c r="J59" s="21"/>
       <c r="K59" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L59" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L59" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M59" s="29" t="s">
         <v>1</v>
@@ -4618,19 +5860,19 @@
     </row>
     <row r="60" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B60" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B60" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="33">
+      <c r="C60" s="34">
         <v>58</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F60" s="30"/>
       <c r="G60" s="21"/>
@@ -4638,10 +5880,10 @@
       <c r="I60" s="30"/>
       <c r="J60" s="21"/>
       <c r="K60" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L60" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L60" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M60" s="29" t="s">
         <v>1</v>
@@ -4667,19 +5909,19 @@
     </row>
     <row r="61" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B61" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B61" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="33">
+      <c r="C61" s="34">
         <v>59</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F61" s="23"/>
       <c r="G61" s="21"/>
@@ -4687,10 +5929,10 @@
       <c r="I61" s="30"/>
       <c r="J61" s="21"/>
       <c r="K61" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L61" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L61" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M61" s="29" t="s">
         <v>1</v>
@@ -4716,19 +5958,19 @@
     </row>
     <row r="62" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B62" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B62" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C62" s="34">
         <v>60</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="33" t="s">
         <v>99</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F62" s="30"/>
       <c r="G62" s="21"/>
@@ -4736,10 +5978,10 @@
       <c r="I62" s="21"/>
       <c r="J62" s="21"/>
       <c r="K62" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L62" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L62" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M62" s="29" t="s">
         <v>1</v>
@@ -4765,19 +6007,19 @@
     </row>
     <row r="63" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B63" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B63" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C63" s="34">
         <v>61</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="33" t="s">
         <v>101</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F63" s="30"/>
       <c r="G63" s="21"/>
@@ -4785,10 +6027,10 @@
       <c r="I63" s="30"/>
       <c r="J63" s="21"/>
       <c r="K63" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L63" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L63" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M63" s="29" t="s">
         <v>1</v>
@@ -4814,19 +6056,19 @@
     </row>
     <row r="64" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B64" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B64" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="33">
+      <c r="C64" s="34">
         <v>62</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="33" t="s">
         <v>103</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F64" s="30"/>
       <c r="G64" s="21"/>
@@ -4834,10 +6076,10 @@
       <c r="I64" s="30"/>
       <c r="J64" s="21"/>
       <c r="K64" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L64" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L64" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M64" s="29" t="s">
         <v>1</v>
@@ -4863,19 +6105,19 @@
     </row>
     <row r="65" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B65" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B65" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C65" s="33">
+      <c r="C65" s="34">
         <v>63</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="33" t="s">
         <v>105</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F65" s="26"/>
       <c r="G65" s="21"/>
@@ -4883,10 +6125,10 @@
       <c r="I65" s="26"/>
       <c r="J65" s="21"/>
       <c r="K65" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L65" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L65" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M65" s="29" t="s">
         <v>1</v>
@@ -4912,19 +6154,19 @@
     </row>
     <row r="66" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B66" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B66" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="33">
+      <c r="C66" s="34">
         <v>64</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="33" t="s">
         <v>107</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
@@ -4932,10 +6174,10 @@
       <c r="I66" s="21"/>
       <c r="J66" s="21"/>
       <c r="K66" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L66" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L66" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M66" s="29" t="s">
         <v>1</v>
@@ -4961,19 +6203,19 @@
     </row>
     <row r="67" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B67" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B67" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="33">
+      <c r="C67" s="34">
         <v>65</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="33" t="s">
         <v>109</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
@@ -4981,10 +6223,10 @@
       <c r="I67" s="21"/>
       <c r="J67" s="21"/>
       <c r="K67" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L67" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L67" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M67" s="29" t="s">
         <v>1</v>
@@ -5010,19 +6252,19 @@
     </row>
     <row r="68" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B68" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B68" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="33">
+      <c r="C68" s="34">
         <v>66</v>
       </c>
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="33" t="s">
         <v>111</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
@@ -5030,10 +6272,10 @@
       <c r="I68" s="21"/>
       <c r="J68" s="21"/>
       <c r="K68" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L68" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L68" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M68" s="29" t="s">
         <v>1</v>
@@ -5059,19 +6301,19 @@
     </row>
     <row r="69" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B69" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B69" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C69" s="33">
+      <c r="C69" s="34">
         <v>67</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="33" t="s">
         <v>113</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
@@ -5079,10 +6321,10 @@
       <c r="I69" s="26"/>
       <c r="J69" s="21"/>
       <c r="K69" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L69" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L69" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M69" s="29" t="s">
         <v>1</v>
@@ -5108,19 +6350,19 @@
     </row>
     <row r="70" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B70" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B70" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C70" s="33">
+      <c r="C70" s="34">
         <v>68</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="33" t="s">
         <v>115</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F70" s="26"/>
       <c r="G70" s="21"/>
@@ -5128,10 +6370,10 @@
       <c r="I70" s="26"/>
       <c r="J70" s="21"/>
       <c r="K70" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L70" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L70" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M70" s="29" t="s">
         <v>1</v>
@@ -5157,19 +6399,19 @@
     </row>
     <row r="71" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B71" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B71" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="33">
+      <c r="C71" s="34">
         <v>69</v>
       </c>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="33" t="s">
         <v>117</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="21"/>
@@ -5177,10 +6419,10 @@
       <c r="I71" s="26"/>
       <c r="J71" s="21"/>
       <c r="K71" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L71" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L71" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M71" s="29" t="s">
         <v>1</v>
@@ -5206,19 +6448,19 @@
     </row>
     <row r="72" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B72" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B72" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="33">
+      <c r="C72" s="34">
         <v>70</v>
       </c>
-      <c r="D72" s="31" t="s">
+      <c r="D72" s="33" t="s">
         <v>119</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F72" s="26"/>
       <c r="G72" s="21"/>
@@ -5226,10 +6468,10 @@
       <c r="I72" s="26"/>
       <c r="J72" s="21"/>
       <c r="K72" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L72" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L72" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M72" s="29" t="s">
         <v>1</v>
@@ -5255,19 +6497,19 @@
     </row>
     <row r="73" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B73" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B73" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C73" s="33">
+      <c r="C73" s="34">
         <v>71</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="33" t="s">
         <v>121</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="21"/>
@@ -5275,10 +6517,10 @@
       <c r="I73" s="26"/>
       <c r="J73" s="21"/>
       <c r="K73" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L73" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L73" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M73" s="29" t="s">
         <v>1</v>
@@ -5304,19 +6546,19 @@
     </row>
     <row r="74" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B74" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B74" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C74" s="33">
+      <c r="C74" s="34">
         <v>72</v>
       </c>
-      <c r="D74" s="31" t="s">
+      <c r="D74" s="33" t="s">
         <v>123</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F74" s="26"/>
       <c r="G74" s="21"/>
@@ -5324,10 +6566,10 @@
       <c r="I74" s="26"/>
       <c r="J74" s="21"/>
       <c r="K74" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L74" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L74" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M74" s="29" t="s">
         <v>1</v>
@@ -5353,19 +6595,19 @@
     </row>
     <row r="75" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B75" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B75" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C75" s="33">
+      <c r="C75" s="34">
         <v>73</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="33" t="s">
         <v>125</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F75" s="26"/>
       <c r="G75" s="21"/>
@@ -5373,10 +6615,10 @@
       <c r="I75" s="26"/>
       <c r="J75" s="21"/>
       <c r="K75" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L75" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L75" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M75" s="29" t="s">
         <v>1</v>
@@ -5402,19 +6644,19 @@
     </row>
     <row r="76" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B76" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B76" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C76" s="33">
+      <c r="C76" s="34">
         <v>74</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="33" t="s">
         <v>127</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F76" s="26"/>
       <c r="G76" s="21"/>
@@ -5422,10 +6664,10 @@
       <c r="I76" s="26"/>
       <c r="J76" s="21"/>
       <c r="K76" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L76" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L76" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M76" s="29" t="s">
         <v>1</v>
@@ -5451,19 +6693,19 @@
     </row>
     <row r="77" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B77" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B77" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C77" s="33">
+      <c r="C77" s="34">
         <v>75</v>
       </c>
-      <c r="D77" s="31" t="s">
+      <c r="D77" s="33" t="s">
         <v>129</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F77" s="26"/>
       <c r="G77" s="21"/>
@@ -5471,10 +6713,10 @@
       <c r="I77" s="26"/>
       <c r="J77" s="21"/>
       <c r="K77" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L77" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L77" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M77" s="29" t="s">
         <v>1</v>
@@ -5500,30 +6742,40 @@
     </row>
     <row r="78" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="34">
+        <v>76</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="G78" s="21">
+        <v>75</v>
+      </c>
+      <c r="H78" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I78" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="J78" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="K78" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L78" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B78" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C78" s="33">
-        <v>76</v>
-      </c>
-      <c r="D78" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F78" s="26"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L78" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M78" s="29" t="s">
         <v>1</v>
@@ -5549,30 +6801,40 @@
     </row>
     <row r="79" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="34">
+        <v>77</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="G79" s="21">
+        <v>835</v>
+      </c>
+      <c r="H79" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I79" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="J79" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="K79" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L79" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B79" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C79" s="33">
-        <v>77</v>
-      </c>
-      <c r="D79" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F79" s="26"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L79" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M79" s="29" t="s">
         <v>1</v>
@@ -5598,30 +6860,40 @@
     </row>
     <row r="80" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="34">
+        <v>78</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="G80" s="21">
+        <v>320</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I80" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="J80" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="K80" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L80" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C80" s="33">
-        <v>78</v>
-      </c>
-      <c r="D80" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F80" s="26"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L80" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M80" s="29" t="s">
         <v>1</v>
@@ -5647,30 +6919,40 @@
     </row>
     <row r="81" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="34">
+        <v>79</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="G81" s="21">
+        <v>1577</v>
+      </c>
+      <c r="H81" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I81" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="J81" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K81" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L81" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="C81" s="33">
-        <v>79</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F81" s="26"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L81" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M81" s="29" t="s">
         <v>1</v>
@@ -5696,30 +6978,40 @@
     </row>
     <row r="82" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="34">
+        <v>80</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="G82" s="21">
+        <v>178</v>
+      </c>
+      <c r="H82" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I82" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="J82" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="K82" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L82" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B82" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="C82" s="33">
-        <v>80</v>
-      </c>
-      <c r="D82" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F82" s="26"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L82" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M82" s="29" t="s">
         <v>1</v>
@@ -5745,30 +7037,40 @@
     </row>
     <row r="83" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="34">
+        <v>81</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="G83" s="21">
+        <v>175</v>
+      </c>
+      <c r="H83" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I83" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="J83" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="K83" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L83" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B83" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="C83" s="33">
-        <v>81</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="E83" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F83" s="26"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L83" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M83" s="29" t="s">
         <v>1</v>
@@ -5794,30 +7096,40 @@
     </row>
     <row r="84" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="34">
+        <v>82</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="F84" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="G84" s="21">
+        <v>139</v>
+      </c>
+      <c r="H84" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I84" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="J84" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="K84" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L84" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B84" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="C84" s="33">
-        <v>82</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="E84" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F84" s="26"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L84" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M84" s="29" t="s">
         <v>1</v>
@@ -5843,30 +7155,40 @@
     </row>
     <row r="85" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="34">
+        <v>83</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="F85" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="G85" s="21">
+        <v>40</v>
+      </c>
+      <c r="H85" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I85" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="J85" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="K85" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L85" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B85" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C85" s="33">
-        <v>83</v>
-      </c>
-      <c r="D85" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="E85" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F85" s="26"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L85" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M85" s="29" t="s">
         <v>1</v>
@@ -5892,30 +7214,40 @@
     </row>
     <row r="86" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C86" s="34">
+        <v>84</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="F86" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="G86" s="21">
+        <v>78</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I86" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="J86" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="K86" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L86" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C86" s="33">
-        <v>84</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="E86" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F86" s="26"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L86" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M86" s="29" t="s">
         <v>1</v>
@@ -5941,30 +7273,40 @@
     </row>
     <row r="87" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="C87" s="34">
+        <v>85</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="F87" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G87" s="21">
+        <v>317</v>
+      </c>
+      <c r="H87" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I87" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="J87" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="K87" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L87" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B87" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="C87" s="33">
-        <v>85</v>
-      </c>
-      <c r="D87" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F87" s="26"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L87" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M87" s="29" t="s">
         <v>1</v>
@@ -5990,30 +7332,40 @@
     </row>
     <row r="88" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C88" s="34">
+        <v>86</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="G88" s="30">
+        <v>723</v>
+      </c>
+      <c r="H88" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I88" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="J88" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="K88" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L88" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B88" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C88" s="33">
-        <v>86</v>
-      </c>
-      <c r="D88" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L88" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M88" s="29" t="s">
         <v>1</v>
@@ -6039,30 +7391,40 @@
     </row>
     <row r="89" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" s="34">
+        <v>87</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="G89" s="30">
+        <v>775</v>
+      </c>
+      <c r="H89" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I89" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="J89" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="K89" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L89" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B89" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="33">
-        <v>87</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="E89" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F89" s="23"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L89" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M89" s="29" t="s">
         <v>1</v>
@@ -6088,30 +7450,40 @@
     </row>
     <row r="90" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90" s="34">
+        <v>88</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="G90" s="30">
+        <v>33</v>
+      </c>
+      <c r="H90" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I90" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="J90" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="K90" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L90" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B90" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="C90" s="33">
-        <v>88</v>
-      </c>
-      <c r="D90" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="E90" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F90" s="21"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L90" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M90" s="29" t="s">
         <v>1</v>
@@ -6137,30 +7509,40 @@
     </row>
     <row r="91" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="C91" s="34">
+        <v>89</v>
+      </c>
+      <c r="D91" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="F91" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="G91" s="21">
+        <v>318</v>
+      </c>
+      <c r="H91" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I91" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="J91" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="K91" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L91" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B91" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C91" s="33">
-        <v>89</v>
-      </c>
-      <c r="D91" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="E91" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F91" s="30"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L91" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M91" s="29" t="s">
         <v>1</v>
@@ -6186,30 +7568,40 @@
     </row>
     <row r="92" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C92" s="34">
+        <v>90</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="G92" s="21">
+        <v>450</v>
+      </c>
+      <c r="H92" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I92" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="J92" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="K92" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L92" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B92" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C92" s="33">
-        <v>90</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F92" s="30"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L92" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M92" s="29" t="s">
         <v>1</v>
@@ -6235,30 +7627,40 @@
     </row>
     <row r="93" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C93" s="34">
+        <v>91</v>
+      </c>
+      <c r="D93" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="F93" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="G93" s="21">
+        <v>750</v>
+      </c>
+      <c r="H93" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I93" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="J93" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="K93" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L93" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B93" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C93" s="33">
-        <v>91</v>
-      </c>
-      <c r="D93" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="E93" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F93" s="30"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L93" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M93" s="29" t="s">
         <v>1</v>
@@ -6284,30 +7686,40 @@
     </row>
     <row r="94" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C94" s="34">
+        <v>92</v>
+      </c>
+      <c r="D94" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="F94" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="G94" s="21">
+        <v>60</v>
+      </c>
+      <c r="H94" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I94" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="J94" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="K94" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L94" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B94" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="C94" s="33">
-        <v>92</v>
-      </c>
-      <c r="D94" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E94" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F94" s="30"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L94" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M94" s="29" t="s">
         <v>1</v>
@@ -6333,30 +7745,40 @@
     </row>
     <row r="95" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C95" s="34">
+        <v>93</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="G95" s="21">
+        <v>533</v>
+      </c>
+      <c r="H95" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I95" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="J95" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="K95" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L95" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B95" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="C95" s="33">
-        <v>93</v>
-      </c>
-      <c r="D95" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F95" s="30"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="21"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="21"/>
-      <c r="K95" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L95" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M95" s="29" t="s">
         <v>1</v>
@@ -6382,30 +7804,40 @@
     </row>
     <row r="96" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C96" s="34">
+        <v>94</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="F96" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="G96" s="21">
+        <v>225</v>
+      </c>
+      <c r="H96" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I96" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="J96" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="K96" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L96" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B96" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="C96" s="33">
-        <v>94</v>
-      </c>
-      <c r="D96" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="E96" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F96" s="30"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L96" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M96" s="29" t="s">
         <v>1</v>
@@ -6431,30 +7863,40 @@
     </row>
     <row r="97" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C97" s="34">
+        <v>95</v>
+      </c>
+      <c r="D97" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="G97" s="21">
+        <v>70</v>
+      </c>
+      <c r="H97" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I97" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="J97" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="K97" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L97" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B97" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="C97" s="33">
-        <v>95</v>
-      </c>
-      <c r="D97" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F97" s="23"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L97" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M97" s="29" t="s">
         <v>1</v>
@@ -6480,30 +7922,40 @@
     </row>
     <row r="98" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" s="34">
+        <v>96</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="F98" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="G98" s="21">
+        <v>515</v>
+      </c>
+      <c r="H98" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I98" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="J98" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="K98" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L98" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B98" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="C98" s="33">
-        <v>96</v>
-      </c>
-      <c r="D98" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="E98" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F98" s="30"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="21"/>
-      <c r="K98" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L98" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M98" s="29" t="s">
         <v>1</v>
@@ -6529,30 +7981,40 @@
     </row>
     <row r="99" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B99" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" s="34">
+        <v>97</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="G99" s="21">
+        <v>163</v>
+      </c>
+      <c r="H99" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I99" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="J99" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="K99" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L99" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B99" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="C99" s="33">
-        <v>97</v>
-      </c>
-      <c r="D99" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="E99" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F99" s="30"/>
-      <c r="G99" s="21"/>
-      <c r="H99" s="21"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="21"/>
-      <c r="K99" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L99" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M99" s="29" t="s">
         <v>1</v>
@@ -6578,30 +8040,40 @@
     </row>
     <row r="100" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B100" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C100" s="34">
+        <v>98</v>
+      </c>
+      <c r="D100" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="F100" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="G100" s="21">
+        <v>255</v>
+      </c>
+      <c r="H100" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I100" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="J100" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="K100" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L100" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B100" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C100" s="33">
-        <v>98</v>
-      </c>
-      <c r="D100" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="E100" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F100" s="23"/>
-      <c r="G100" s="21"/>
-      <c r="H100" s="21"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="21"/>
-      <c r="K100" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L100" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M100" s="29" t="s">
         <v>1</v>
@@ -6627,30 +8099,40 @@
     </row>
     <row r="101" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B101" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" s="34">
+        <v>99</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="G101" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H101" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I101" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="J101" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="K101" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L101" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B101" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="C101" s="33">
-        <v>99</v>
-      </c>
-      <c r="D101" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="E101" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F101" s="30"/>
-      <c r="G101" s="21"/>
-      <c r="H101" s="21"/>
-      <c r="I101" s="30"/>
-      <c r="J101" s="21"/>
-      <c r="K101" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L101" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M101" s="29" t="s">
         <v>1</v>
@@ -6676,30 +8158,40 @@
     </row>
     <row r="102" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" s="34">
+        <v>100</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="G102" s="21">
+        <v>70</v>
+      </c>
+      <c r="H102" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I102" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="J102" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="K102" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L102" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B102" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="C102" s="33">
-        <v>100</v>
-      </c>
-      <c r="D102" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="E102" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F102" s="30"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="21"/>
-      <c r="I102" s="30"/>
-      <c r="J102" s="21"/>
-      <c r="K102" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L102" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M102" s="29" t="s">
         <v>1</v>
@@ -6725,30 +8217,40 @@
     </row>
     <row r="103" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" s="34">
+        <v>101</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="F103" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="G103" s="21">
+        <v>74</v>
+      </c>
+      <c r="H103" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I103" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="J103" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="K103" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L103" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B103" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="C103" s="33">
-        <v>101</v>
-      </c>
-      <c r="D103" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E103" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F103" s="23"/>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="30"/>
-      <c r="J103" s="21"/>
-      <c r="K103" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L103" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M103" s="29" t="s">
         <v>1</v>
@@ -6774,30 +8276,40 @@
     </row>
     <row r="104" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C104" s="34">
+        <v>102</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="G104" s="21">
+        <v>329</v>
+      </c>
+      <c r="H104" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I104" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="J104" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="K104" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L104" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B104" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="C104" s="33">
-        <v>102</v>
-      </c>
-      <c r="D104" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F104" s="30"/>
-      <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
-      <c r="I104" s="30"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L104" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M104" s="29" t="s">
         <v>1</v>
@@ -6823,30 +8335,40 @@
     </row>
     <row r="105" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" s="34">
+        <v>103</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="G105" s="21">
+        <v>130</v>
+      </c>
+      <c r="H105" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I105" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="J105" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="K105" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L105" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B105" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="C105" s="33">
-        <v>103</v>
-      </c>
-      <c r="D105" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E105" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F105" s="30"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="30"/>
-      <c r="J105" s="21"/>
-      <c r="K105" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L105" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M105" s="29" t="s">
         <v>1</v>
@@ -6872,30 +8394,40 @@
     </row>
     <row r="106" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B106" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C106" s="34">
+        <v>104</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="F106" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="G106" s="21">
+        <v>528</v>
+      </c>
+      <c r="H106" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I106" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="J106" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="K106" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L106" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B106" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="C106" s="33">
-        <v>104</v>
-      </c>
-      <c r="D106" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="E106" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F106" s="23"/>
-      <c r="G106" s="21"/>
-      <c r="H106" s="21"/>
-      <c r="I106" s="30"/>
-      <c r="J106" s="21"/>
-      <c r="K106" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L106" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M106" s="29" t="s">
         <v>1</v>
@@ -6921,30 +8453,40 @@
     </row>
     <row r="107" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="C107" s="34">
+        <v>105</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="F107" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="G107" s="21">
+        <v>10</v>
+      </c>
+      <c r="H107" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I107" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="J107" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="K107" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L107" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B107" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="C107" s="33">
-        <v>105</v>
-      </c>
-      <c r="D107" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="E107" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F107" s="30"/>
-      <c r="G107" s="21"/>
-      <c r="H107" s="21"/>
-      <c r="I107" s="30"/>
-      <c r="J107" s="21"/>
-      <c r="K107" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L107" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M107" s="29" t="s">
         <v>1</v>
@@ -6970,30 +8512,40 @@
     </row>
     <row r="108" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A108" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B108" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" s="34">
+        <v>106</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="F108" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="G108" s="21">
+        <v>75</v>
+      </c>
+      <c r="H108" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I108" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="J108" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="K108" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L108" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B108" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="C108" s="33">
-        <v>106</v>
-      </c>
-      <c r="D108" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="E108" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F108" s="23"/>
-      <c r="G108" s="21"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="30"/>
-      <c r="J108" s="21"/>
-      <c r="K108" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L108" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M108" s="29" t="s">
         <v>1</v>
@@ -7019,30 +8571,40 @@
     </row>
     <row r="109" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B109" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C109" s="34">
+        <v>107</v>
+      </c>
+      <c r="D109" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="F109" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="G109" s="21">
+        <v>60</v>
+      </c>
+      <c r="H109" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I109" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="J109" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="K109" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L109" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B109" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="C109" s="33">
-        <v>107</v>
-      </c>
-      <c r="D109" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="E109" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F109" s="30"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="21"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="21"/>
-      <c r="K109" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L109" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M109" s="29" t="s">
         <v>1</v>
@@ -7068,30 +8630,40 @@
     </row>
     <row r="110" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B110" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C110" s="34">
+        <v>108</v>
+      </c>
+      <c r="D110" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="F110" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="G110" s="21">
+        <v>3655</v>
+      </c>
+      <c r="H110" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I110" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="J110" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="K110" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L110" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B110" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="C110" s="33">
-        <v>108</v>
-      </c>
-      <c r="D110" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="E110" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F110" s="30"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="21"/>
-      <c r="I110" s="30"/>
-      <c r="J110" s="21"/>
-      <c r="K110" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L110" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M110" s="29" t="s">
         <v>1</v>
@@ -7117,30 +8689,40 @@
     </row>
     <row r="111" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A111" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C111" s="34">
+        <v>109</v>
+      </c>
+      <c r="D111" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="F111" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="G111" s="21">
+        <v>341</v>
+      </c>
+      <c r="H111" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="I111" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="J111" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="K111" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L111" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B111" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="C111" s="33">
-        <v>109</v>
-      </c>
-      <c r="D111" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="E111" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F111" s="30"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="21"/>
-      <c r="I111" s="30"/>
-      <c r="J111" s="21"/>
-      <c r="K111" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L111" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M111" s="29" t="s">
         <v>1</v>
@@ -7166,30 +8748,40 @@
     </row>
     <row r="112" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A112" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C112" s="34">
+        <v>110</v>
+      </c>
+      <c r="D112" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="G112" s="21">
+        <v>95</v>
+      </c>
+      <c r="H112" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I112" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="J112" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="K112" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L112" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B112" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C112" s="33">
-        <v>110</v>
-      </c>
-      <c r="D112" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="E112" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F112" s="21"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="21"/>
-      <c r="I112" s="30"/>
-      <c r="J112" s="21"/>
-      <c r="K112" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L112" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M112" s="29" t="s">
         <v>1</v>
@@ -7215,30 +8807,40 @@
     </row>
     <row r="113" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A113" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B113" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C113" s="34">
+        <v>111</v>
+      </c>
+      <c r="D113" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E113" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="F113" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="G113" s="21">
+        <v>544</v>
+      </c>
+      <c r="H113" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I113" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="J113" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="K113" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L113" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B113" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C113" s="33">
-        <v>111</v>
-      </c>
-      <c r="D113" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="E113" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F113" s="21"/>
-      <c r="G113" s="21"/>
-      <c r="H113" s="21"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="21"/>
-      <c r="K113" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L113" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M113" s="29" t="s">
         <v>1</v>
@@ -7264,30 +8866,40 @@
     </row>
     <row r="114" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A114" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" s="34">
+        <v>112</v>
+      </c>
+      <c r="D114" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="F114" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="G114" s="21">
+        <v>123</v>
+      </c>
+      <c r="H114" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I114" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="J114" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="K114" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L114" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B114" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C114" s="33">
-        <v>112</v>
-      </c>
-      <c r="D114" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="E114" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F114" s="30"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
-      <c r="I114" s="21"/>
-      <c r="J114" s="21"/>
-      <c r="K114" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L114" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M114" s="29" t="s">
         <v>1</v>
@@ -7313,30 +8925,40 @@
     </row>
     <row r="115" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A115" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115" s="34">
+        <v>113</v>
+      </c>
+      <c r="D115" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="E115" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="F115" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="G115" s="21">
+        <v>1863</v>
+      </c>
+      <c r="H115" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I115" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="J115" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="K115" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L115" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B115" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="C115" s="33">
-        <v>113</v>
-      </c>
-      <c r="D115" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="E115" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F115" s="30"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
-      <c r="J115" s="21"/>
-      <c r="K115" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L115" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M115" s="29" t="s">
         <v>1</v>
@@ -7362,30 +8984,40 @@
     </row>
     <row r="116" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A116" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" s="34">
+        <v>114</v>
+      </c>
+      <c r="D116" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="F116" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G116" s="21">
+        <v>80</v>
+      </c>
+      <c r="H116" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I116" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="J116" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="K116" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L116" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B116" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="C116" s="33">
-        <v>114</v>
-      </c>
-      <c r="D116" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="E116" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F116" s="30"/>
-      <c r="G116" s="21"/>
-      <c r="H116" s="21"/>
-      <c r="I116" s="21"/>
-      <c r="J116" s="21"/>
-      <c r="K116" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L116" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M116" s="29" t="s">
         <v>1</v>
@@ -7411,30 +9043,40 @@
     </row>
     <row r="117" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A117" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B117" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" s="34">
+        <v>115</v>
+      </c>
+      <c r="D117" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="F117" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="G117" s="21">
+        <v>54</v>
+      </c>
+      <c r="H117" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I117" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="J117" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="K117" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L117" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B117" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="C117" s="33">
-        <v>115</v>
-      </c>
-      <c r="D117" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="E117" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F117" s="23"/>
-      <c r="G117" s="21"/>
-      <c r="H117" s="21"/>
-      <c r="I117" s="30"/>
-      <c r="J117" s="21"/>
-      <c r="K117" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L117" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M117" s="29" t="s">
         <v>1</v>
@@ -7460,30 +9102,40 @@
     </row>
     <row r="118" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A118" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B118" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" s="34">
+        <v>116</v>
+      </c>
+      <c r="D118" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="F118" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="G118" s="21">
+        <v>99</v>
+      </c>
+      <c r="H118" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I118" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="J118" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="K118" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L118" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B118" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="C118" s="33">
-        <v>116</v>
-      </c>
-      <c r="D118" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="E118" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F118" s="23"/>
-      <c r="G118" s="21"/>
-      <c r="H118" s="21"/>
-      <c r="I118" s="30"/>
-      <c r="J118" s="21"/>
-      <c r="K118" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L118" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M118" s="29" t="s">
         <v>1</v>
@@ -7509,30 +9161,40 @@
     </row>
     <row r="119" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A119" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C119" s="34">
+        <v>117</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="F119" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="G119" s="21">
+        <v>612</v>
+      </c>
+      <c r="H119" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I119" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="J119" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="K119" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L119" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B119" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C119" s="33">
-        <v>117</v>
-      </c>
-      <c r="D119" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="E119" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F119" s="30"/>
-      <c r="G119" s="21"/>
-      <c r="H119" s="21"/>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21"/>
-      <c r="K119" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L119" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M119" s="29" t="s">
         <v>1</v>
@@ -7558,30 +9220,40 @@
     </row>
     <row r="120" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A120" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B120" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C120" s="34">
+        <v>118</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="F120" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="G120" s="21">
+        <v>762</v>
+      </c>
+      <c r="H120" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I120" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="J120" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="K120" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L120" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B120" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="C120" s="33">
-        <v>118</v>
-      </c>
-      <c r="D120" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="E120" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F120" s="30"/>
-      <c r="G120" s="21"/>
-      <c r="H120" s="21"/>
-      <c r="I120" s="21"/>
-      <c r="J120" s="21"/>
-      <c r="K120" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L120" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M120" s="29" t="s">
         <v>1</v>
@@ -7607,30 +9279,40 @@
     </row>
     <row r="121" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A121" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C121" s="34">
+        <v>119</v>
+      </c>
+      <c r="D121" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="F121" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="G121" s="21">
+        <v>209</v>
+      </c>
+      <c r="H121" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I121" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="J121" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="K121" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L121" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B121" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="C121" s="33">
-        <v>119</v>
-      </c>
-      <c r="D121" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="E121" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F121" s="23"/>
-      <c r="G121" s="21"/>
-      <c r="H121" s="21"/>
-      <c r="I121" s="30"/>
-      <c r="J121" s="21"/>
-      <c r="K121" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L121" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M121" s="29" t="s">
         <v>1</v>
@@ -7656,30 +9338,40 @@
     </row>
     <row r="122" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A122" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B122" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C122" s="34">
+        <v>120</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="F122" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="G122" s="21">
+        <v>255</v>
+      </c>
+      <c r="H122" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I122" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="J122" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="K122" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L122" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B122" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="C122" s="33">
-        <v>120</v>
-      </c>
-      <c r="D122" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="E122" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F122" s="30"/>
-      <c r="G122" s="21"/>
-      <c r="H122" s="21"/>
-      <c r="I122" s="21"/>
-      <c r="J122" s="21"/>
-      <c r="K122" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L122" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M122" s="29" t="s">
         <v>1</v>
@@ -7705,30 +9397,40 @@
     </row>
     <row r="123" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A123" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B123" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C123" s="34">
+        <v>121</v>
+      </c>
+      <c r="D123" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="F123" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="G123" s="21">
+        <v>87</v>
+      </c>
+      <c r="H123" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I123" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="J123" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="K123" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L123" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B123" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="C123" s="33">
-        <v>121</v>
-      </c>
-      <c r="D123" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="E123" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F123" s="30"/>
-      <c r="G123" s="21"/>
-      <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21"/>
-      <c r="K123" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L123" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M123" s="29" t="s">
         <v>1</v>
@@ -7754,30 +9456,40 @@
     </row>
     <row r="124" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A124" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B124" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C124" s="34">
+        <v>122</v>
+      </c>
+      <c r="D124" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="F124" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="G124" s="21">
+        <v>55</v>
+      </c>
+      <c r="H124" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I124" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="J124" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="K124" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L124" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B124" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="C124" s="33">
-        <v>122</v>
-      </c>
-      <c r="D124" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="E124" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F124" s="23"/>
-      <c r="G124" s="21"/>
-      <c r="H124" s="21"/>
-      <c r="I124" s="30"/>
-      <c r="J124" s="21"/>
-      <c r="K124" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L124" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M124" s="29" t="s">
         <v>1</v>
@@ -7803,30 +9515,40 @@
     </row>
     <row r="125" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A125" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B125" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C125" s="34">
+        <v>123</v>
+      </c>
+      <c r="D125" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E125" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="F125" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="G125" s="21">
+        <v>30</v>
+      </c>
+      <c r="H125" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I125" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="J125" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="K125" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L125" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B125" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="C125" s="33">
-        <v>123</v>
-      </c>
-      <c r="D125" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="E125" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F125" s="23"/>
-      <c r="G125" s="21"/>
-      <c r="H125" s="21"/>
-      <c r="I125" s="30"/>
-      <c r="J125" s="21"/>
-      <c r="K125" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L125" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M125" s="29" t="s">
         <v>1</v>
@@ -7852,30 +9574,40 @@
     </row>
     <row r="126" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A126" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B126" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C126" s="34">
+        <v>124</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E126" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="F126" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="G126" s="21">
+        <v>285</v>
+      </c>
+      <c r="H126" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I126" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="J126" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="K126" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L126" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B126" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="C126" s="33">
-        <v>124</v>
-      </c>
-      <c r="D126" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="E126" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F126" s="30"/>
-      <c r="G126" s="21"/>
-      <c r="H126" s="21"/>
-      <c r="I126" s="21"/>
-      <c r="J126" s="21"/>
-      <c r="K126" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L126" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M126" s="29" t="s">
         <v>1</v>
@@ -7901,30 +9633,40 @@
     </row>
     <row r="127" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A127" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B127" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C127" s="34">
+        <v>125</v>
+      </c>
+      <c r="D127" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E127" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="F127" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="G127" s="21">
+        <v>540</v>
+      </c>
+      <c r="H127" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I127" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="J127" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="K127" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L127" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B127" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="C127" s="33">
-        <v>125</v>
-      </c>
-      <c r="D127" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E127" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F127" s="30"/>
-      <c r="G127" s="21"/>
-      <c r="H127" s="21"/>
-      <c r="I127" s="21"/>
-      <c r="J127" s="21"/>
-      <c r="K127" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L127" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M127" s="29" t="s">
         <v>1</v>
@@ -7950,30 +9692,40 @@
     </row>
     <row r="128" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A128" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B128" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C128" s="34">
+        <v>126</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E128" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="F128" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="G128" s="21">
+        <v>135</v>
+      </c>
+      <c r="H128" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I128" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="J128" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="K128" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L128" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B128" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="C128" s="33">
-        <v>126</v>
-      </c>
-      <c r="D128" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="E128" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F128" s="23"/>
-      <c r="G128" s="21"/>
-      <c r="H128" s="21"/>
-      <c r="I128" s="30"/>
-      <c r="J128" s="21"/>
-      <c r="K128" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L128" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M128" s="29" t="s">
         <v>1</v>
@@ -7999,30 +9751,40 @@
     </row>
     <row r="129" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A129" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C129" s="34">
+        <v>127</v>
+      </c>
+      <c r="D129" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="F129" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="G129" s="21">
+        <v>48</v>
+      </c>
+      <c r="H129" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I129" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="J129" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="K129" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L129" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B129" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C129" s="33">
-        <v>127</v>
-      </c>
-      <c r="D129" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="E129" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F129" s="30"/>
-      <c r="G129" s="21"/>
-      <c r="H129" s="21"/>
-      <c r="I129" s="21"/>
-      <c r="J129" s="21"/>
-      <c r="K129" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L129" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M129" s="29" t="s">
         <v>1</v>
@@ -8048,30 +9810,40 @@
     </row>
     <row r="130" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A130" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B130" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C130" s="34">
+        <v>128</v>
+      </c>
+      <c r="D130" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="F130" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="G130" s="21">
+        <v>241</v>
+      </c>
+      <c r="H130" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I130" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="J130" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="K130" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L130" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B130" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="C130" s="33">
-        <v>128</v>
-      </c>
-      <c r="D130" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="E130" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F130" s="23"/>
-      <c r="G130" s="21"/>
-      <c r="H130" s="21"/>
-      <c r="I130" s="30"/>
-      <c r="J130" s="21"/>
-      <c r="K130" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L130" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M130" s="29" t="s">
         <v>1</v>
@@ -8097,30 +9869,40 @@
     </row>
     <row r="131" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A131" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C131" s="34">
+        <v>129</v>
+      </c>
+      <c r="D131" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="F131" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="G131" s="21">
+        <v>222</v>
+      </c>
+      <c r="H131" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I131" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="J131" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="K131" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L131" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B131" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="C131" s="33">
-        <v>129</v>
-      </c>
-      <c r="D131" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E131" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F131" s="23"/>
-      <c r="G131" s="21"/>
-      <c r="H131" s="21"/>
-      <c r="I131" s="30"/>
-      <c r="J131" s="21"/>
-      <c r="K131" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L131" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M131" s="29" t="s">
         <v>1</v>
@@ -8146,30 +9928,40 @@
     </row>
     <row r="132" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A132" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B132" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C132" s="34">
+        <v>130</v>
+      </c>
+      <c r="D132" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E132" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="F132" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="G132" s="21">
+        <v>230</v>
+      </c>
+      <c r="H132" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I132" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="J132" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="K132" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L132" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B132" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="C132" s="33">
-        <v>130</v>
-      </c>
-      <c r="D132" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="E132" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F132" s="30"/>
-      <c r="G132" s="21"/>
-      <c r="H132" s="21"/>
-      <c r="I132" s="21"/>
-      <c r="J132" s="21"/>
-      <c r="K132" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L132" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M132" s="29" t="s">
         <v>1</v>
@@ -8195,30 +9987,40 @@
     </row>
     <row r="133" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A133" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C133" s="34">
+        <v>131</v>
+      </c>
+      <c r="D133" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="G133" s="21">
+        <v>507</v>
+      </c>
+      <c r="H133" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I133" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="J133" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="K133" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L133" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B133" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="C133" s="33">
-        <v>131</v>
-      </c>
-      <c r="D133" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="E133" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F133" s="23"/>
-      <c r="G133" s="21"/>
-      <c r="H133" s="21"/>
-      <c r="I133" s="30"/>
-      <c r="J133" s="21"/>
-      <c r="K133" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L133" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M133" s="29" t="s">
         <v>1</v>
@@ -8244,30 +10046,40 @@
     </row>
     <row r="134" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A134" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C134" s="34">
+        <v>132</v>
+      </c>
+      <c r="D134" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="F134" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="G134" s="21">
+        <v>99</v>
+      </c>
+      <c r="H134" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I134" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="J134" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="K134" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L134" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B134" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="C134" s="33">
-        <v>132</v>
-      </c>
-      <c r="D134" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="E134" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F134" s="30"/>
-      <c r="G134" s="21"/>
-      <c r="H134" s="21"/>
-      <c r="I134" s="21"/>
-      <c r="J134" s="21"/>
-      <c r="K134" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L134" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M134" s="29" t="s">
         <v>1</v>
@@ -8293,30 +10105,40 @@
     </row>
     <row r="135" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A135" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B135" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C135" s="34">
+        <v>133</v>
+      </c>
+      <c r="D135" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="G135" s="21">
+        <v>226</v>
+      </c>
+      <c r="H135" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I135" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="J135" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="K135" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L135" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B135" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="C135" s="33">
-        <v>133</v>
-      </c>
-      <c r="D135" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="E135" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F135" s="23"/>
-      <c r="G135" s="21"/>
-      <c r="H135" s="21"/>
-      <c r="I135" s="30"/>
-      <c r="J135" s="21"/>
-      <c r="K135" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L135" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M135" s="29" t="s">
         <v>1</v>
@@ -8342,30 +10164,40 @@
     </row>
     <row r="136" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A136" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B136" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="C136" s="34">
+        <v>134</v>
+      </c>
+      <c r="D136" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="F136" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="G136" s="21">
+        <v>71</v>
+      </c>
+      <c r="H136" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I136" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="J136" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="K136" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L136" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B136" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="C136" s="33">
-        <v>134</v>
-      </c>
-      <c r="D136" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E136" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F136" s="23"/>
-      <c r="G136" s="21"/>
-      <c r="H136" s="21"/>
-      <c r="I136" s="30"/>
-      <c r="J136" s="21"/>
-      <c r="K136" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L136" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M136" s="29" t="s">
         <v>1</v>
@@ -8391,30 +10223,40 @@
     </row>
     <row r="137" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A137" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B137" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C137" s="34">
+        <v>135</v>
+      </c>
+      <c r="D137" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="E137" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="F137" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="G137" s="21">
+        <v>325</v>
+      </c>
+      <c r="H137" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I137" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="J137" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="K137" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L137" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B137" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C137" s="33">
-        <v>135</v>
-      </c>
-      <c r="D137" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="E137" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F137" s="30"/>
-      <c r="G137" s="21"/>
-      <c r="H137" s="21"/>
-      <c r="I137" s="21"/>
-      <c r="J137" s="21"/>
-      <c r="K137" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L137" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M137" s="29" t="s">
         <v>1</v>
@@ -8440,30 +10282,40 @@
     </row>
     <row r="138" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A138" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B138" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C138" s="34">
+        <v>136</v>
+      </c>
+      <c r="D138" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>550</v>
+      </c>
+      <c r="F138" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="G138" s="21">
+        <v>486</v>
+      </c>
+      <c r="H138" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I138" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="J138" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="K138" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L138" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B138" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="C138" s="33">
-        <v>136</v>
-      </c>
-      <c r="D138" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="E138" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F138" s="23"/>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
-      <c r="I138" s="30"/>
-      <c r="J138" s="21"/>
-      <c r="K138" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L138" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M138" s="29" t="s">
         <v>1</v>
@@ -8489,30 +10341,40 @@
     </row>
     <row r="139" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A139" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B139" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C139" s="34">
+        <v>137</v>
+      </c>
+      <c r="D139" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="E139" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="F139" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="G139" s="21">
+        <v>91</v>
+      </c>
+      <c r="H139" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I139" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="J139" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="K139" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L139" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B139" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C139" s="33">
-        <v>137</v>
-      </c>
-      <c r="D139" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="E139" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F139" s="30"/>
-      <c r="G139" s="21"/>
-      <c r="H139" s="21"/>
-      <c r="I139" s="21"/>
-      <c r="J139" s="21"/>
-      <c r="K139" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L139" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M139" s="29" t="s">
         <v>1</v>
@@ -8538,30 +10400,40 @@
     </row>
     <row r="140" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A140" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B140" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C140" s="34">
+        <v>138</v>
+      </c>
+      <c r="D140" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E140" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="F140" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="G140" s="21">
+        <v>342</v>
+      </c>
+      <c r="H140" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I140" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="J140" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="K140" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L140" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B140" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="C140" s="33">
-        <v>138</v>
-      </c>
-      <c r="D140" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="E140" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F140" s="30"/>
-      <c r="G140" s="21"/>
-      <c r="H140" s="21"/>
-      <c r="I140" s="30"/>
-      <c r="J140" s="21"/>
-      <c r="K140" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L140" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M140" s="29" t="s">
         <v>1</v>
@@ -8587,30 +10459,40 @@
     </row>
     <row r="141" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A141" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B141" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C141" s="34">
+        <v>139</v>
+      </c>
+      <c r="D141" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E141" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="F141" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="G141" s="21">
+        <v>73</v>
+      </c>
+      <c r="H141" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I141" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="J141" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="K141" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L141" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B141" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="C141" s="33">
-        <v>139</v>
-      </c>
-      <c r="D141" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="E141" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F141" s="30"/>
-      <c r="G141" s="21"/>
-      <c r="H141" s="21"/>
-      <c r="I141" s="30"/>
-      <c r="J141" s="21"/>
-      <c r="K141" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L141" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M141" s="29" t="s">
         <v>1</v>
@@ -8636,30 +10518,40 @@
     </row>
     <row r="142" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A142" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B142" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C142" s="34">
+        <v>140</v>
+      </c>
+      <c r="D142" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="E142" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="F142" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="G142" s="21">
+        <v>341</v>
+      </c>
+      <c r="H142" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I142" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="J142" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="K142" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L142" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B142" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="C142" s="33">
-        <v>140</v>
-      </c>
-      <c r="D142" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="E142" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F142" s="21"/>
-      <c r="G142" s="21"/>
-      <c r="H142" s="21"/>
-      <c r="I142" s="21"/>
-      <c r="J142" s="21"/>
-      <c r="K142" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L142" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M142" s="29" t="s">
         <v>1</v>
@@ -8685,30 +10577,40 @@
     </row>
     <row r="143" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A143" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B143" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C143" s="34">
+        <v>141</v>
+      </c>
+      <c r="D143" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E143" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="F143" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="G143" s="21">
+        <v>589</v>
+      </c>
+      <c r="H143" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I143" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="J143" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="K143" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L143" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B143" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C143" s="33">
-        <v>141</v>
-      </c>
-      <c r="D143" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="E143" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F143" s="30"/>
-      <c r="G143" s="21"/>
-      <c r="H143" s="21"/>
-      <c r="I143" s="21"/>
-      <c r="J143" s="21"/>
-      <c r="K143" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L143" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M143" s="29" t="s">
         <v>1</v>
@@ -8734,30 +10636,40 @@
     </row>
     <row r="144" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A144" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B144" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C144" s="34">
+        <v>142</v>
+      </c>
+      <c r="D144" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>574</v>
+      </c>
+      <c r="F144" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="G144" s="21">
+        <v>440</v>
+      </c>
+      <c r="H144" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I144" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="J144" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="K144" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L144" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B144" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="C144" s="33">
-        <v>142</v>
-      </c>
-      <c r="D144" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="E144" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F144" s="23"/>
-      <c r="G144" s="21"/>
-      <c r="H144" s="21"/>
-      <c r="I144" s="21"/>
-      <c r="J144" s="21"/>
-      <c r="K144" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L144" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M144" s="29" t="s">
         <v>1</v>
@@ -8783,30 +10695,40 @@
     </row>
     <row r="145" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A145" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B145" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C145" s="34">
+        <v>143</v>
+      </c>
+      <c r="D145" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="G145" s="21">
+        <v>94</v>
+      </c>
+      <c r="H145" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="I145" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="J145" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="K145" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L145" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="B145" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="C145" s="33">
-        <v>143</v>
-      </c>
-      <c r="D145" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="E145" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F145" s="23"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="22"/>
-      <c r="I145" s="21"/>
-      <c r="J145" s="21"/>
-      <c r="K145" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L145" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M145" s="29" t="s">
         <v>1</v>
@@ -8832,30 +10754,28 @@
     </row>
     <row r="146" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A146" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B146" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="C146" s="33">
+        <v>263</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C146" s="34">
         <v>144</v>
       </c>
-      <c r="D146" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="E146" s="26" t="s">
-        <v>266</v>
-      </c>
+      <c r="D146" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="E146" s="26"/>
       <c r="F146" s="25"/>
       <c r="G146" s="21"/>
       <c r="H146" s="22"/>
       <c r="I146" s="25"/>
       <c r="J146" s="22"/>
       <c r="K146" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L146" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="L146" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="M146" s="29" t="s">
         <v>1</v>

--- a/core/utils/cadenderecoLONDRINA.xlsx
+++ b/core/utils/cadenderecoLONDRINA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79F2355-9C94-4ED5-87C0-9A5793B38E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7D0B4A-B694-46A2-80BC-C344AC26F4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="855">
   <si>
     <t>ESCOLA</t>
   </si>
@@ -84,9 +84,6 @@
     <t>1970</t>
   </si>
   <si>
-    <t>CEI - ADRIANA GUAZZI - Z. SUL</t>
-  </si>
-  <si>
     <t>1971</t>
   </si>
   <si>
@@ -2014,6 +2011,585 @@
   </si>
   <si>
     <t>3341-0136</t>
+  </si>
+  <si>
+    <t>RUA MITOMU SIMAMURA</t>
+  </si>
+  <si>
+    <t>PARQUE ND. PESADAS</t>
+  </si>
+  <si>
+    <t>86043-030</t>
+  </si>
+  <si>
+    <t>3341-8243</t>
+  </si>
+  <si>
+    <t>RUA SEBASTIÃO PEDROSO DE MORAES</t>
+  </si>
+  <si>
+    <t>JARDIM NOVA ESPERANÇA</t>
+  </si>
+  <si>
+    <t>86044-639</t>
+  </si>
+  <si>
+    <t>3341-1450</t>
+  </si>
+  <si>
+    <t>RUA FLOR DOS ALPES</t>
+  </si>
+  <si>
+    <t>86042-120</t>
+  </si>
+  <si>
+    <t>RUA ELIAS TOSETTI</t>
+  </si>
+  <si>
+    <t>86038-360</t>
+  </si>
+  <si>
+    <t>JARDIM PÉROLA</t>
+  </si>
+  <si>
+    <t>3341-1677</t>
+  </si>
+  <si>
+    <t>RUA ANTÔNIO SILVEIRA SANTOS</t>
+  </si>
+  <si>
+    <t>CONJ. SÃO LOURENÇO</t>
+  </si>
+  <si>
+    <t>86043-090</t>
+  </si>
+  <si>
+    <t>RUA PAULO CÉSAR FRAGA ABELHA</t>
+  </si>
+  <si>
+    <t>TERRA BONITA</t>
+  </si>
+  <si>
+    <t>86055-760</t>
+  </si>
+  <si>
+    <t>3343-3072</t>
+  </si>
+  <si>
+    <t>3026-8686</t>
+  </si>
+  <si>
+    <t>RUA DIÓGENES LIMA BRAVO</t>
+  </si>
+  <si>
+    <t>JARDIM PEROBAL</t>
+  </si>
+  <si>
+    <t>86043-670</t>
+  </si>
+  <si>
+    <t>3336-5866</t>
+  </si>
+  <si>
+    <t>AVENIDA MADRE LEÔNIA MILITO</t>
+  </si>
+  <si>
+    <t>PARQUE GUANABARA</t>
+  </si>
+  <si>
+    <t>86050-180</t>
+  </si>
+  <si>
+    <t>3329-1140</t>
+  </si>
+  <si>
+    <t>RUA CAPIBERIBE</t>
+  </si>
+  <si>
+    <t>VILA NOVA</t>
+  </si>
+  <si>
+    <t>86025-380</t>
+  </si>
+  <si>
+    <t>3325-8060</t>
+  </si>
+  <si>
+    <t>AVENIDA ANÁLIA FRANCO</t>
+  </si>
+  <si>
+    <t>AEROPORTO</t>
+  </si>
+  <si>
+    <t>86039-560</t>
+  </si>
+  <si>
+    <t>3321-8933</t>
+  </si>
+  <si>
+    <t>VILA IZABEL</t>
+  </si>
+  <si>
+    <t>3337-8516</t>
+  </si>
+  <si>
+    <t>RUA AMIANTO</t>
+  </si>
+  <si>
+    <t>JARDIM IDEAL</t>
+  </si>
+  <si>
+    <t>86030-010</t>
+  </si>
+  <si>
+    <t>3337-5888</t>
+  </si>
+  <si>
+    <t>RUA ANTÔNIO ELEUTÉRIO NAVES</t>
+  </si>
+  <si>
+    <t>CONJUNTO GUILHERME PIRES</t>
+  </si>
+  <si>
+    <t>86037-400</t>
+  </si>
+  <si>
+    <t>3325-7499</t>
+  </si>
+  <si>
+    <t>AVENIDA DO CAFÉ</t>
+  </si>
+  <si>
+    <t>86038-000</t>
+  </si>
+  <si>
+    <t>3339-2347</t>
+  </si>
+  <si>
+    <t>RUA JOSÉ MARTINS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>CONJUNTO MISTER THOMAS</t>
+  </si>
+  <si>
+    <t>86031-270</t>
+  </si>
+  <si>
+    <t>3339-1950</t>
+  </si>
+  <si>
+    <t>86036-070</t>
+  </si>
+  <si>
+    <t>3326-2251</t>
+  </si>
+  <si>
+    <t>RUA ANANÁS</t>
+  </si>
+  <si>
+    <t>JARDIM MAIRÁ</t>
+  </si>
+  <si>
+    <t>86035-360</t>
+  </si>
+  <si>
+    <t>3345-1754</t>
+  </si>
+  <si>
+    <t>AVENIDA AZILÉ MIGUEL ABUJAMRA</t>
+  </si>
+  <si>
+    <t>RESIDENCIAL ACQUAVILLE</t>
+  </si>
+  <si>
+    <t>86036-370</t>
+  </si>
+  <si>
+    <t>3325-1349</t>
+  </si>
+  <si>
+    <t>RUA MAMBURÊ</t>
+  </si>
+  <si>
+    <t>86027-370</t>
+  </si>
+  <si>
+    <t>3066-9959</t>
+  </si>
+  <si>
+    <t>RUA MARAGOGIPE</t>
+  </si>
+  <si>
+    <t>86020-280</t>
+  </si>
+  <si>
+    <t>3039-1832</t>
+  </si>
+  <si>
+    <t>AVENIDA SÃO JOÃO</t>
+  </si>
+  <si>
+    <t>VILA SIAM</t>
+  </si>
+  <si>
+    <t>3066-7574</t>
+  </si>
+  <si>
+    <t>RUA SÔNIA MARIA MARENGA GARCIA</t>
+  </si>
+  <si>
+    <t>JARDIM TARUMÃ</t>
+  </si>
+  <si>
+    <t>86038-590</t>
+  </si>
+  <si>
+    <t>3024-3360</t>
+  </si>
+  <si>
+    <t>RUA JAGUARIBE</t>
+  </si>
+  <si>
+    <t>86025-250</t>
+  </si>
+  <si>
+    <t>3334-1537</t>
+  </si>
+  <si>
+    <t>RUA BRASILIO MACHADO</t>
+  </si>
+  <si>
+    <t>VILA MARÍZIA</t>
+  </si>
+  <si>
+    <t>86079-010</t>
+  </si>
+  <si>
+    <t>3348-7282</t>
+  </si>
+  <si>
+    <t>RUA SUDÃO</t>
+  </si>
+  <si>
+    <t>PARQUE OURO VERDE</t>
+  </si>
+  <si>
+    <t>86080-110</t>
+  </si>
+  <si>
+    <t>3348-3068</t>
+  </si>
+  <si>
+    <t>RUA AROEIRA</t>
+  </si>
+  <si>
+    <t>86071-400</t>
+  </si>
+  <si>
+    <t>3338-5686</t>
+  </si>
+  <si>
+    <t>RUA NOSSA SENHORA DAS GRAÇAS</t>
+  </si>
+  <si>
+    <t>JARDIM NOSSA SENHORA DA PAZ</t>
+  </si>
+  <si>
+    <t>86071-030</t>
+  </si>
+  <si>
+    <t>3327-1187</t>
+  </si>
+  <si>
+    <t>RUA FOZ DO IGUAÇU</t>
+  </si>
+  <si>
+    <t>JARDIM BANCÁRIOS</t>
+  </si>
+  <si>
+    <t>86061-000</t>
+  </si>
+  <si>
+    <t>3327-4647</t>
+  </si>
+  <si>
+    <t>RUA SERRA DA CANASTRA</t>
+  </si>
+  <si>
+    <t>3328-1033</t>
+  </si>
+  <si>
+    <t>RUA HERMEGILDO MARQUESINI</t>
+  </si>
+  <si>
+    <t>JARDIM JOÃO TURQUINO</t>
+  </si>
+  <si>
+    <t>86056-440</t>
+  </si>
+  <si>
+    <t>86065-160</t>
+  </si>
+  <si>
+    <t>3327-9618</t>
+  </si>
+  <si>
+    <t>RUA ORALDO WALDEMAR SPROGER</t>
+  </si>
+  <si>
+    <t>JARDIM SÃO JORGE</t>
+  </si>
+  <si>
+    <t>86082-819</t>
+  </si>
+  <si>
+    <t>3375-0179</t>
+  </si>
+  <si>
+    <t>RUA SALIN SAHÃO</t>
+  </si>
+  <si>
+    <t>JARDIM ALTO DA BOA VISTA</t>
+  </si>
+  <si>
+    <t>86083-050</t>
+  </si>
+  <si>
+    <t>3375-0195</t>
+  </si>
+  <si>
+    <t>RUA TANZÃNIA</t>
+  </si>
+  <si>
+    <t>86080-010</t>
+  </si>
+  <si>
+    <t>3375-0006</t>
+  </si>
+  <si>
+    <t>RUA ELITON VILLELA RAMOS</t>
+  </si>
+  <si>
+    <t>RESIDENCIAL MORADIAS TIBAGI</t>
+  </si>
+  <si>
+    <t>86080-482</t>
+  </si>
+  <si>
+    <t>3375-0104</t>
+  </si>
+  <si>
+    <t>3375-0118</t>
+  </si>
+  <si>
+    <t>RUA ERNESTO DE SOUZA GUEDES</t>
+  </si>
+  <si>
+    <t>PQ. RES. JOAQUIM TOLEDO PIZA</t>
+  </si>
+  <si>
+    <t>86041-175</t>
+  </si>
+  <si>
+    <t>3375-0510</t>
+  </si>
+  <si>
+    <t>3375-0191</t>
+  </si>
+  <si>
+    <t>86044-000</t>
+  </si>
+  <si>
+    <t>RU ANANIAS FONSECA DA SILVA</t>
+  </si>
+  <si>
+    <t>C. H. CAFEZAL I</t>
+  </si>
+  <si>
+    <t>86049-070</t>
+  </si>
+  <si>
+    <t>3375-0184</t>
+  </si>
+  <si>
+    <t>RUA LAURENTINO GOMES HUBNER</t>
+  </si>
+  <si>
+    <t>CONJUNTO CAFEZAL</t>
+  </si>
+  <si>
+    <t>86045-590</t>
+  </si>
+  <si>
+    <t>3375-0012</t>
+  </si>
+  <si>
+    <t>RUA LÍRIO DOS VALES</t>
+  </si>
+  <si>
+    <t>PARQUE DAS INDÚSTRIAS</t>
+  </si>
+  <si>
+    <t>3375-0189</t>
+  </si>
+  <si>
+    <t>3375-0208</t>
+  </si>
+  <si>
+    <t>RUA SANTA ROSA</t>
+  </si>
+  <si>
+    <t>CONJUNTO PINDORAMA</t>
+  </si>
+  <si>
+    <t>86027-660</t>
+  </si>
+  <si>
+    <t>3375-0505</t>
+  </si>
+  <si>
+    <t>RUA ATÍLIO SCUDELER</t>
+  </si>
+  <si>
+    <t>VILA PORTUGUESA</t>
+  </si>
+  <si>
+    <t>86026-440</t>
+  </si>
+  <si>
+    <t>3375-0230</t>
+  </si>
+  <si>
+    <t>RUA CEREJEIRA</t>
+  </si>
+  <si>
+    <t>86035-450</t>
+  </si>
+  <si>
+    <t>3375-0192</t>
+  </si>
+  <si>
+    <t>RUA JOSÉ VARGAS</t>
+  </si>
+  <si>
+    <t>86031-685</t>
+  </si>
+  <si>
+    <t>3375-0207</t>
+  </si>
+  <si>
+    <t>RUA SANTA CLARA</t>
+  </si>
+  <si>
+    <t>VILA DA FRATERNIDADE</t>
+  </si>
+  <si>
+    <t>86027-590</t>
+  </si>
+  <si>
+    <t>3375-0026</t>
+  </si>
+  <si>
+    <t>RUA LEONTINA DA CONCEIÇÃO GAION</t>
+  </si>
+  <si>
+    <t>C. H. ERNANI MOURA LIMA</t>
+  </si>
+  <si>
+    <t>86037-140</t>
+  </si>
+  <si>
+    <t>3375-0204</t>
+  </si>
+  <si>
+    <t>RUA BENJAMIN  CONSTANT</t>
+  </si>
+  <si>
+    <t>86010-350</t>
+  </si>
+  <si>
+    <t>3375-0186</t>
+  </si>
+  <si>
+    <t>RUA POTIGUARES</t>
+  </si>
+  <si>
+    <t>VILA MATOS</t>
+  </si>
+  <si>
+    <t>86026-145</t>
+  </si>
+  <si>
+    <t>3375-0194</t>
+  </si>
+  <si>
+    <t>3375-0222</t>
+  </si>
+  <si>
+    <t>RUA EUCALIPTOS</t>
+  </si>
+  <si>
+    <t>86071-110</t>
+  </si>
+  <si>
+    <t>3375-0232</t>
+  </si>
+  <si>
+    <t>RUA SOITI TARUMÃ</t>
+  </si>
+  <si>
+    <t>JARDIM SABARÁ III</t>
+  </si>
+  <si>
+    <t>86057-090</t>
+  </si>
+  <si>
+    <t>3375-0197</t>
+  </si>
+  <si>
+    <t>JARDIM SANTIAGO</t>
+  </si>
+  <si>
+    <t>86071-710</t>
+  </si>
+  <si>
+    <t>3375-0193</t>
+  </si>
+  <si>
+    <t>RUA RUY VIRMOND CARNASCIALLI</t>
+  </si>
+  <si>
+    <t>86071-260</t>
+  </si>
+  <si>
+    <t>3375-0217</t>
+  </si>
+  <si>
+    <t>RUA ADELINA PIQUETI BARRIOS</t>
+  </si>
+  <si>
+    <t>JARDIM MARACANÃ</t>
+  </si>
+  <si>
+    <t>86056-860</t>
+  </si>
+  <si>
+    <t>CEI - ADRIANA VIEIRA MARAGNO GUAZZI - Z. SUL</t>
+  </si>
+  <si>
+    <t>3375-0220</t>
+  </si>
+  <si>
+    <t>RUA HUMAITÁ</t>
+  </si>
+  <si>
+    <t>3375-0101</t>
+  </si>
+  <si>
+    <t>86060-060</t>
+  </si>
+  <si>
+    <t>KENNEDY</t>
   </si>
 </sst>
 </file>
@@ -2734,10 +3310,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DA9257-B4D5-4E5C-82C2-6ED4623D6343}">
   <dimension ref="A1:AE366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2745,7 +3321,7 @@
     <col min="1" max="1" width="10.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="5" style="32" customWidth="1"/>
-    <col min="4" max="4" width="45" style="3" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="46.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="3" customWidth="1"/>
@@ -2818,40 +3394,40 @@
     </row>
     <row r="2" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>267</v>
-      </c>
       <c r="E2" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>585</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>586</v>
       </c>
       <c r="G2" s="21">
         <v>450</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I2" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="J2" s="21" t="s">
-        <v>588</v>
-      </c>
       <c r="K2" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L2" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M2" s="29" t="s">
         <v>1</v>
@@ -2877,40 +3453,40 @@
     </row>
     <row r="3" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>269</v>
-      </c>
       <c r="E3" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>589</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>590</v>
       </c>
       <c r="G3" s="21">
         <v>905</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I3" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="J3" s="21" t="s">
-        <v>592</v>
-      </c>
       <c r="K3" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L3" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M3" s="29" t="s">
         <v>1</v>
@@ -2936,40 +3512,40 @@
     </row>
     <row r="4" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>271</v>
-      </c>
       <c r="E4" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>593</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>594</v>
       </c>
       <c r="G4" s="21">
         <v>53</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K4" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L4" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M4" s="29" t="s">
         <v>1</v>
@@ -2995,40 +3571,40 @@
     </row>
     <row r="5" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>273</v>
-      </c>
       <c r="E5" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>597</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>598</v>
       </c>
       <c r="G5" s="21">
         <v>261</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I5" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>599</v>
       </c>
-      <c r="J5" s="21" t="s">
-        <v>600</v>
-      </c>
       <c r="K5" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L5" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M5" s="29" t="s">
         <v>1</v>
@@ -3054,40 +3630,40 @@
     </row>
     <row r="6" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>275</v>
-      </c>
       <c r="E6" s="26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G6" s="21">
         <v>13</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I6" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="J6" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="J6" s="21" t="s">
-        <v>603</v>
-      </c>
       <c r="K6" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L6" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M6" s="29" t="s">
         <v>1</v>
@@ -3113,40 +3689,40 @@
     </row>
     <row r="7" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>277</v>
-      </c>
       <c r="E7" s="26" t="s">
+        <v>635</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>636</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>637</v>
       </c>
       <c r="G7" s="21">
         <v>80</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I7" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="J7" s="21" t="s">
         <v>638</v>
       </c>
-      <c r="J7" s="21" t="s">
-        <v>639</v>
-      </c>
       <c r="K7" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L7" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M7" s="29" t="s">
         <v>1</v>
@@ -3172,40 +3748,40 @@
     </row>
     <row r="8" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B8" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>279</v>
-      </c>
       <c r="E8" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>605</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>606</v>
       </c>
       <c r="G8" s="21">
         <v>531</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K8" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M8" s="29" t="s">
         <v>1</v>
@@ -3231,40 +3807,40 @@
     </row>
     <row r="9" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L9" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>608</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>609</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>611</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>612</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M9" s="29" t="s">
         <v>1</v>
@@ -3290,40 +3866,40 @@
     </row>
     <row r="10" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B10" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>283</v>
-      </c>
       <c r="E10" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>613</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>614</v>
       </c>
       <c r="G10" s="21">
         <v>258</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I10" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="J10" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="J10" s="21" t="s">
-        <v>616</v>
-      </c>
       <c r="K10" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L10" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M10" s="29" t="s">
         <v>1</v>
@@ -3349,40 +3925,40 @@
     </row>
     <row r="11" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>617</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>618</v>
       </c>
       <c r="G11" s="21">
         <v>450</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I11" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="J11" s="21" t="s">
         <v>619</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>620</v>
-      </c>
       <c r="K11" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L11" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M11" s="29" t="s">
         <v>1</v>
@@ -3408,40 +3984,40 @@
     </row>
     <row r="12" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C12" s="34">
         <v>10</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E12" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>621</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>622</v>
       </c>
       <c r="G12" s="21">
         <v>1050</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I12" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="J12" s="21" t="s">
         <v>623</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>624</v>
-      </c>
       <c r="K12" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L12" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M12" s="29" t="s">
         <v>1</v>
@@ -3467,40 +4043,40 @@
     </row>
     <row r="13" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" s="34">
         <v>11</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E13" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>625</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>626</v>
       </c>
       <c r="G13" s="21">
         <v>22</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I13" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="J13" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="J13" s="21" t="s">
-        <v>628</v>
-      </c>
       <c r="K13" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L13" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M13" s="29" t="s">
         <v>1</v>
@@ -3526,40 +4102,40 @@
     </row>
     <row r="14" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C14" s="34">
         <v>12</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E14" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>629</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>630</v>
       </c>
       <c r="G14" s="21">
         <v>820</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K14" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M14" s="29" t="s">
         <v>1</v>
@@ -3585,7 +4161,7 @@
     </row>
     <row r="15" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>16</v>
@@ -3597,28 +4173,28 @@
         <v>17</v>
       </c>
       <c r="E15" s="26" t="s">
+        <v>631</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>632</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>633</v>
       </c>
       <c r="G15" s="21">
         <v>50</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I15" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="J15" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="J15" s="21" t="s">
-        <v>635</v>
-      </c>
       <c r="K15" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L15" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M15" s="29" t="s">
         <v>1</v>
@@ -3644,40 +4220,40 @@
     </row>
     <row r="16" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C16" s="34">
         <v>14</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E16" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>640</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>641</v>
       </c>
       <c r="G16" s="21">
         <v>69</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K16" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L16" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L16" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M16" s="29" t="s">
         <v>1</v>
@@ -3703,40 +4279,40 @@
     </row>
     <row r="17" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C17" s="34">
         <v>15</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G17" s="21">
         <v>188</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I17" s="21" t="s">
+        <v>643</v>
+      </c>
+      <c r="J17" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="J17" s="21" t="s">
-        <v>645</v>
-      </c>
       <c r="K17" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L17" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M17" s="29" t="s">
         <v>1</v>
@@ -3762,7 +4338,7 @@
     </row>
     <row r="18" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>18</v>
@@ -3771,21 +4347,31 @@
         <v>16</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>19</v>
+        <v>849</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+        <v>850</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="G18" s="21">
+        <v>123</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>681</v>
+      </c>
       <c r="K18" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L18" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M18" s="29" t="s">
         <v>1</v>
@@ -3811,40 +4397,40 @@
     </row>
     <row r="19" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="34">
         <v>17</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="F19" s="26" t="s">
         <v>646</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="G19" s="21" t="s">
         <v>647</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="H19" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I19" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="I19" s="21" t="s">
+      <c r="J19" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="J19" s="21" t="s">
-        <v>650</v>
-      </c>
       <c r="K19" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L19" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L19" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M19" s="29" t="s">
         <v>1</v>
@@ -3870,40 +4456,40 @@
     </row>
     <row r="20" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="34">
         <v>18</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="26" t="s">
+        <v>650</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>651</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>652</v>
       </c>
       <c r="G20" s="21">
         <v>205</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K20" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L20" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M20" s="29" t="s">
         <v>1</v>
@@ -3929,40 +4515,40 @@
     </row>
     <row r="21" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="34">
         <v>19</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="F21" s="26" t="s">
         <v>654</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>655</v>
       </c>
       <c r="G21" s="21">
         <v>78</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I21" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="J21" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="J21" s="21" t="s">
-        <v>657</v>
-      </c>
       <c r="K21" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L21" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L21" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M21" s="29" t="s">
         <v>1</v>
@@ -3988,40 +4574,40 @@
     </row>
     <row r="22" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="34">
         <v>20</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="F22" s="26" t="s">
         <v>658</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>659</v>
       </c>
       <c r="G22" s="21">
         <v>50</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I22" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="J22" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="J22" s="21" t="s">
-        <v>661</v>
-      </c>
       <c r="K22" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L22" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M22" s="29" t="s">
         <v>1</v>
@@ -4047,30 +4633,40 @@
     </row>
     <row r="23" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="34">
         <v>21</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="21"/>
+      <c r="G23" s="21">
+        <v>105</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>664</v>
+      </c>
       <c r="K23" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L23" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L23" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>1</v>
@@ -4096,30 +4692,40 @@
     </row>
     <row r="24" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="34">
         <v>22</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+        <v>665</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>666</v>
+      </c>
+      <c r="G24" s="21">
+        <v>300</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>668</v>
+      </c>
       <c r="K24" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L24" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L24" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M24" s="29" t="s">
         <v>1</v>
@@ -4145,30 +4751,40 @@
     </row>
     <row r="25" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="34">
         <v>23</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="21"/>
+        <v>669</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="G25" s="21">
+        <v>440</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>671</v>
+      </c>
       <c r="K25" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L25" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L25" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M25" s="29" t="s">
         <v>1</v>
@@ -4194,30 +4810,40 @@
     </row>
     <row r="26" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="34">
         <v>24</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="21"/>
+        <v>675</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="G26" s="21">
+        <v>92</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>678</v>
+      </c>
       <c r="K26" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L26" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L26" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M26" s="29" t="s">
         <v>1</v>
@@ -4243,30 +4869,40 @@
     </row>
     <row r="27" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="34">
         <v>25</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="21"/>
+        <v>683</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="G27" s="21">
+        <v>225</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>674</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>673</v>
+      </c>
       <c r="K27" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L27" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L27" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M27" s="29" t="s">
         <v>1</v>
@@ -4292,30 +4928,40 @@
     </row>
     <row r="28" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="34">
         <v>26</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="21"/>
+        <v>682</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="G28" s="21">
+        <v>99</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>686</v>
+      </c>
       <c r="K28" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L28" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>1</v>
@@ -4341,30 +4987,40 @@
     </row>
     <row r="29" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="34">
         <v>27</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="21"/>
+        <v>687</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="G29" s="21">
+        <v>499</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>690</v>
+      </c>
       <c r="K29" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L29" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L29" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M29" s="29" t="s">
         <v>1</v>
@@ -4390,30 +5046,40 @@
     </row>
     <row r="30" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="34">
         <v>28</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="21"/>
+        <v>691</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="G30" s="21">
+        <v>63</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>694</v>
+      </c>
       <c r="K30" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L30" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L30" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M30" s="29" t="s">
         <v>1</v>
@@ -4439,30 +5105,40 @@
     </row>
     <row r="31" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="34">
         <v>29</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="21"/>
+        <v>691</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="G31" s="21">
+        <v>63</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>694</v>
+      </c>
       <c r="K31" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L31" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M31" s="29" t="s">
         <v>1</v>
@@ -4488,30 +5164,40 @@
     </row>
     <row r="32" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="34">
         <v>30</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="21"/>
+        <v>695</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="G32" s="21">
+        <v>33</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>698</v>
+      </c>
       <c r="K32" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L32" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L32" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M32" s="29" t="s">
         <v>1</v>
@@ -4537,30 +5223,40 @@
     </row>
     <row r="33" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="34">
         <v>31</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="21"/>
+        <v>699</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="G33" s="21">
+        <v>536</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>482</v>
+      </c>
       <c r="K33" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L33" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M33" s="29" t="s">
         <v>1</v>
@@ -4586,30 +5282,40 @@
     </row>
     <row r="34" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="34">
         <v>32</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="21"/>
+        <v>701</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="G34" s="21">
+        <v>45</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>704</v>
+      </c>
       <c r="K34" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L34" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L34" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M34" s="29" t="s">
         <v>1</v>
@@ -4635,30 +5341,40 @@
     </row>
     <row r="35" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="34">
         <v>33</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="21"/>
+        <v>705</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="G35" s="21">
+        <v>156</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>707</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>708</v>
+      </c>
       <c r="K35" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L35" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L35" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M35" s="29" t="s">
         <v>1</v>
@@ -4684,30 +5400,40 @@
     </row>
     <row r="36" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="34">
         <v>34</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="21"/>
+        <v>709</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="G36" s="21">
+        <v>100</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>711</v>
+      </c>
       <c r="K36" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L36" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L36" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M36" s="29" t="s">
         <v>1</v>
@@ -4733,30 +5459,40 @@
     </row>
     <row r="37" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="34">
         <v>35</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="21"/>
+        <v>712</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="G37" s="21">
+        <v>255</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>714</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>715</v>
+      </c>
       <c r="K37" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L37" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M37" s="29" t="s">
         <v>1</v>
@@ -4782,30 +5518,40 @@
     </row>
     <row r="38" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="34">
         <v>36</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="21"/>
+        <v>716</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="G38" s="21">
+        <v>339</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>717</v>
+      </c>
       <c r="K38" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L38" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L38" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M38" s="29" t="s">
         <v>1</v>
@@ -4831,30 +5577,40 @@
     </row>
     <row r="39" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="34">
         <v>37</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
+        <v>718</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>719</v>
+      </c>
+      <c r="G39" s="21">
+        <v>96</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>720</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>721</v>
+      </c>
       <c r="K39" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L39" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L39" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M39" s="29" t="s">
         <v>1</v>
@@ -4880,30 +5636,40 @@
     </row>
     <row r="40" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="34">
         <v>38</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F40" s="26"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="21"/>
+        <v>722</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>723</v>
+      </c>
+      <c r="G40" s="21">
+        <v>170</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>724</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>725</v>
+      </c>
       <c r="K40" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L40" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L40" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M40" s="29" t="s">
         <v>1</v>
@@ -4929,30 +5695,40 @@
     </row>
     <row r="41" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="34">
         <v>39</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="21"/>
+        <v>726</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>727</v>
+      </c>
+      <c r="G41" s="21">
+        <v>151</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>728</v>
+      </c>
       <c r="K41" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L41" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L41" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M41" s="29" t="s">
         <v>1</v>
@@ -4978,30 +5754,40 @@
     </row>
     <row r="42" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C42" s="34">
         <v>40</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
+        <v>729</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="G42" s="21">
+        <v>169</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>731</v>
+      </c>
       <c r="K42" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L42" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L42" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M42" s="29" t="s">
         <v>1</v>
@@ -5027,30 +5813,40 @@
     </row>
     <row r="43" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="34">
         <v>41</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="21"/>
+        <v>732</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="G43" s="21">
+        <v>209</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>734</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>460</v>
+      </c>
       <c r="K43" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L43" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L43" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M43" s="29" t="s">
         <v>1</v>
@@ -5076,30 +5872,40 @@
     </row>
     <row r="44" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="34">
         <v>42</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="21"/>
+        <v>735</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="G44" s="21">
+        <v>300</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>738</v>
+      </c>
       <c r="K44" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L44" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L44" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M44" s="29" t="s">
         <v>1</v>
@@ -5125,30 +5931,40 @@
     </row>
     <row r="45" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="34">
         <v>43</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="21"/>
+        <v>739</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="G45" s="21">
+        <v>350</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>741</v>
+      </c>
       <c r="K45" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L45" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L45" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M45" s="29" t="s">
         <v>1</v>
@@ -5174,30 +5990,40 @@
     </row>
     <row r="46" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="34">
         <v>44</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="21"/>
+        <v>742</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="G46" s="21">
+        <v>160</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>745</v>
+      </c>
       <c r="K46" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L46" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L46" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M46" s="29" t="s">
         <v>1</v>
@@ -5223,30 +6049,40 @@
     </row>
     <row r="47" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" s="34">
         <v>45</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="21"/>
+        <v>746</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>747</v>
+      </c>
+      <c r="G47" s="21">
+        <v>273</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>749</v>
+      </c>
       <c r="K47" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L47" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L47" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M47" s="29" t="s">
         <v>1</v>
@@ -5272,30 +6108,40 @@
     </row>
     <row r="48" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" s="34">
         <v>46</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="21"/>
+        <v>750</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="G48" s="21">
+        <v>230</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>752</v>
+      </c>
       <c r="K48" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L48" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L48" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M48" s="29" t="s">
         <v>1</v>
@@ -5321,30 +6167,40 @@
     </row>
     <row r="49" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" s="34">
         <v>47</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F49" s="26"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="21"/>
+        <v>753</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="G49" s="21">
+        <v>295</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>755</v>
+      </c>
+      <c r="J49" s="21" t="s">
+        <v>756</v>
+      </c>
       <c r="K49" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L49" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L49" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M49" s="29" t="s">
         <v>1</v>
@@ -5370,30 +6226,40 @@
     </row>
     <row r="50" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" s="34">
         <v>48</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="21"/>
+        <v>757</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="G50" s="21">
+        <v>245</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="J50" s="21" t="s">
+        <v>760</v>
+      </c>
       <c r="K50" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L50" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L50" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M50" s="29" t="s">
         <v>1</v>
@@ -5419,30 +6285,40 @@
     </row>
     <row r="51" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="34">
         <v>49</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="21"/>
+        <v>761</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="G51" s="21">
+        <v>636</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I51" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>767</v>
+      </c>
       <c r="K51" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L51" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L51" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M51" s="29" t="s">
         <v>1</v>
@@ -5468,30 +6344,40 @@
     </row>
     <row r="52" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52" s="34">
         <v>50</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="21"/>
+        <v>763</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="G52" s="21">
+        <v>50</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I52" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>766</v>
+      </c>
       <c r="K52" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L52" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L52" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M52" s="29" t="s">
         <v>1</v>
@@ -5517,30 +6403,40 @@
     </row>
     <row r="53" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="34">
         <v>51</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F53" s="26"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="21"/>
+        <v>768</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="G53" s="21">
+        <v>377</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I53" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>771</v>
+      </c>
       <c r="K53" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L53" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L53" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M53" s="29" t="s">
         <v>1</v>
@@ -5566,30 +6462,40 @@
     </row>
     <row r="54" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C54" s="34">
         <v>52</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F54" s="26"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="21"/>
+        <v>772</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="G54" s="21">
+        <v>60</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I54" s="26" t="s">
+        <v>774</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>775</v>
+      </c>
       <c r="K54" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L54" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L54" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M54" s="29" t="s">
         <v>1</v>
@@ -5615,30 +6521,40 @@
     </row>
     <row r="55" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C55" s="34">
         <v>53</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F55" s="26"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="21"/>
+        <v>776</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>777</v>
+      </c>
+      <c r="G55" s="21">
+        <v>315</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="J55" s="21" t="s">
+        <v>778</v>
+      </c>
       <c r="K55" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L55" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L55" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M55" s="29" t="s">
         <v>1</v>
@@ -5664,30 +6580,40 @@
     </row>
     <row r="56" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C56" s="34">
         <v>54</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F56" s="26"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="21"/>
+        <v>779</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="G56" s="21">
+        <v>38</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I56" s="26" t="s">
+        <v>781</v>
+      </c>
+      <c r="J56" s="21" t="s">
+        <v>782</v>
+      </c>
       <c r="K56" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L56" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L56" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M56" s="29" t="s">
         <v>1</v>
@@ -5713,30 +6639,40 @@
     </row>
     <row r="57" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C57" s="34">
         <v>55</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F57" s="26"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="21"/>
+        <v>783</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="G57" s="21">
+        <v>778</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I57" s="26" t="s">
+        <v>774</v>
+      </c>
+      <c r="J57" s="21" t="s">
+        <v>775</v>
+      </c>
       <c r="K57" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L57" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L57" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M57" s="29" t="s">
         <v>1</v>
@@ -5762,30 +6698,40 @@
     </row>
     <row r="58" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" s="34">
         <v>56</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F58" s="30"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="21"/>
+        <v>784</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="G58" s="21">
+        <v>135</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I58" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>787</v>
+      </c>
       <c r="K58" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L58" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L58" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M58" s="29" t="s">
         <v>1</v>
@@ -5811,30 +6757,40 @@
     </row>
     <row r="59" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="34">
         <v>57</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F59" s="30"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="21"/>
+        <v>788</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="G59" s="21">
+        <v>27</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I59" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="J59" s="21" t="s">
+        <v>404</v>
+      </c>
       <c r="K59" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L59" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L59" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M59" s="29" t="s">
         <v>1</v>
@@ -5860,30 +6816,40 @@
     </row>
     <row r="60" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C60" s="34">
         <v>58</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F60" s="30"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="21"/>
+        <v>789</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="G60" s="21">
+        <v>3655</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I60" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="J60" s="21" t="s">
+        <v>790</v>
+      </c>
       <c r="K60" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L60" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L60" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M60" s="29" t="s">
         <v>1</v>
@@ -5909,30 +6875,40 @@
     </row>
     <row r="61" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C61" s="34">
         <v>59</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="21"/>
+        <v>802</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>791</v>
+      </c>
+      <c r="G61" s="21">
+        <v>110</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I61" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="J61" s="21" t="s">
+        <v>793</v>
+      </c>
       <c r="K61" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L61" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L61" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M61" s="29" t="s">
         <v>1</v>
@@ -5958,30 +6934,40 @@
     </row>
     <row r="62" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" s="34">
         <v>60</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F62" s="30"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
+        <v>794</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="G62" s="21">
+        <v>359</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I62" s="21" t="s">
+        <v>796</v>
+      </c>
+      <c r="J62" s="21" t="s">
+        <v>797</v>
+      </c>
       <c r="K62" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L62" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L62" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M62" s="29" t="s">
         <v>1</v>
@@ -6007,30 +6993,40 @@
     </row>
     <row r="63" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C63" s="34">
         <v>61</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F63" s="30"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="21"/>
+        <v>798</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="G63" s="21">
+        <v>77</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I63" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="J63" s="21" t="s">
+        <v>678</v>
+      </c>
       <c r="K63" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L63" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L63" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M63" s="29" t="s">
         <v>1</v>
@@ -6056,30 +7052,40 @@
     </row>
     <row r="64" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C64" s="34">
         <v>62</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F64" s="30"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="21"/>
+        <v>801</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>803</v>
+      </c>
+      <c r="G64" s="21">
+        <v>141</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I64" s="30" t="s">
+        <v>804</v>
+      </c>
+      <c r="J64" s="21" t="s">
+        <v>805</v>
+      </c>
       <c r="K64" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L64" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L64" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M64" s="29" t="s">
         <v>1</v>
@@ -6105,30 +7111,40 @@
     </row>
     <row r="65" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C65" s="34">
         <v>63</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F65" s="26"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="21"/>
+        <v>806</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I65" s="26" t="s">
+        <v>808</v>
+      </c>
+      <c r="J65" s="21" t="s">
+        <v>809</v>
+      </c>
       <c r="K65" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L65" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L65" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M65" s="29" t="s">
         <v>1</v>
@@ -6154,30 +7170,40 @@
     </row>
     <row r="66" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C66" s="34">
         <v>64</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
+        <v>810</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>811</v>
+      </c>
+      <c r="G66" s="21">
+        <v>427</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="J66" s="21" t="s">
+        <v>812</v>
+      </c>
       <c r="K66" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L66" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L66" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M66" s="29" t="s">
         <v>1</v>
@@ -6203,30 +7229,40 @@
     </row>
     <row r="67" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C67" s="34">
         <v>65</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
+        <v>813</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>814</v>
+      </c>
+      <c r="G67" s="21">
+        <v>250</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>815</v>
+      </c>
       <c r="K67" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L67" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L67" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M67" s="29" t="s">
         <v>1</v>
@@ -6252,30 +7288,40 @@
     </row>
     <row r="68" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C68" s="34">
         <v>66</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
+        <v>816</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="G68" s="21">
+        <v>125</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>818</v>
+      </c>
+      <c r="J68" s="21" t="s">
+        <v>819</v>
+      </c>
       <c r="K68" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L68" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L68" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M68" s="29" t="s">
         <v>1</v>
@@ -6301,30 +7347,40 @@
     </row>
     <row r="69" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C69" s="34">
         <v>67</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="21"/>
+        <v>820</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>821</v>
+      </c>
+      <c r="G69" s="21">
+        <v>390</v>
+      </c>
+      <c r="H69" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I69" s="26" t="s">
+        <v>822</v>
+      </c>
+      <c r="J69" s="21" t="s">
+        <v>823</v>
+      </c>
       <c r="K69" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L69" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L69" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M69" s="29" t="s">
         <v>1</v>
@@ -6350,30 +7406,40 @@
     </row>
     <row r="70" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C70" s="34">
         <v>68</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F70" s="26"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="21"/>
+        <v>824</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>825</v>
+      </c>
+      <c r="G70" s="21">
+        <v>800</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I70" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="J70" s="21" t="s">
+        <v>826</v>
+      </c>
       <c r="K70" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L70" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L70" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M70" s="29" t="s">
         <v>1</v>
@@ -6399,30 +7465,40 @@
     </row>
     <row r="71" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" s="34">
         <v>69</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F71" s="26"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="21"/>
+        <v>827</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>828</v>
+      </c>
+      <c r="G71" s="21">
+        <v>80</v>
+      </c>
+      <c r="H71" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I71" s="26" t="s">
+        <v>829</v>
+      </c>
+      <c r="J71" s="21" t="s">
+        <v>830</v>
+      </c>
       <c r="K71" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L71" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L71" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M71" s="29" t="s">
         <v>1</v>
@@ -6448,30 +7524,40 @@
     </row>
     <row r="72" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C72" s="34">
         <v>70</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F72" s="26"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="21"/>
+        <v>831</v>
+      </c>
+      <c r="F72" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="G72" s="21">
+        <v>33</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I72" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="J72" s="21" t="s">
+        <v>494</v>
+      </c>
       <c r="K72" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L72" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L72" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M72" s="29" t="s">
         <v>1</v>
@@ -6497,30 +7583,40 @@
     </row>
     <row r="73" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C73" s="34">
         <v>71</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F73" s="26"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="21"/>
+        <v>832</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>833</v>
+      </c>
+      <c r="G73" s="21">
+        <v>111</v>
+      </c>
+      <c r="H73" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I73" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="J73" s="21" t="s">
+        <v>834</v>
+      </c>
       <c r="K73" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L73" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L73" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M73" s="29" t="s">
         <v>1</v>
@@ -6546,30 +7642,40 @@
     </row>
     <row r="74" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="34">
         <v>72</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F74" s="26"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="21"/>
+        <v>835</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>836</v>
+      </c>
+      <c r="G74" s="21">
+        <v>800</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I74" s="26" t="s">
+        <v>837</v>
+      </c>
+      <c r="J74" s="21" t="s">
+        <v>838</v>
+      </c>
       <c r="K74" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L74" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L74" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M74" s="29" t="s">
         <v>1</v>
@@ -6595,30 +7701,40 @@
     </row>
     <row r="75" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C75" s="34">
         <v>73</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F75" s="26"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="21"/>
+        <v>839</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="G75" s="21">
+        <v>325</v>
+      </c>
+      <c r="H75" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I75" s="26" t="s">
+        <v>840</v>
+      </c>
+      <c r="J75" s="21" t="s">
+        <v>841</v>
+      </c>
       <c r="K75" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L75" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L75" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M75" s="29" t="s">
         <v>1</v>
@@ -6644,30 +7760,40 @@
     </row>
     <row r="76" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C76" s="34">
         <v>74</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F76" s="26"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="21"/>
+        <v>842</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>843</v>
+      </c>
+      <c r="G76" s="21">
+        <v>904</v>
+      </c>
+      <c r="H76" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I76" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="J76" s="21" t="s">
+        <v>844</v>
+      </c>
       <c r="K76" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L76" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L76" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M76" s="29" t="s">
         <v>1</v>
@@ -6693,30 +7819,40 @@
     </row>
     <row r="77" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C77" s="34">
         <v>75</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F77" s="26"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="21"/>
+        <v>845</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>846</v>
+      </c>
+      <c r="G77" s="21">
+        <v>170</v>
+      </c>
+      <c r="H77" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I77" s="26" t="s">
+        <v>847</v>
+      </c>
+      <c r="J77" s="21" t="s">
+        <v>848</v>
+      </c>
       <c r="K77" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L77" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L77" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M77" s="29" t="s">
         <v>1</v>
@@ -6742,40 +7878,40 @@
     </row>
     <row r="78" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C78" s="34">
         <v>76</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F78" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G78" s="21">
         <v>75</v>
       </c>
       <c r="H78" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I78" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="J78" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="J78" s="21" t="s">
-        <v>318</v>
-      </c>
       <c r="K78" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L78" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L78" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M78" s="29" t="s">
         <v>1</v>
@@ -6801,40 +7937,40 @@
     </row>
     <row r="79" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C79" s="34">
         <v>77</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E79" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="F79" s="26" t="s">
         <v>320</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>321</v>
       </c>
       <c r="G79" s="21">
         <v>835</v>
       </c>
       <c r="H79" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I79" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="J79" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="J79" s="21" t="s">
-        <v>323</v>
-      </c>
       <c r="K79" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L79" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L79" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M79" s="29" t="s">
         <v>1</v>
@@ -6860,40 +7996,40 @@
     </row>
     <row r="80" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C80" s="34">
         <v>78</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G80" s="21">
         <v>320</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I80" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="J80" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="J80" s="21" t="s">
-        <v>326</v>
-      </c>
       <c r="K80" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L80" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L80" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M80" s="29" t="s">
         <v>1</v>
@@ -6919,40 +8055,40 @@
     </row>
     <row r="81" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C81" s="34">
         <v>79</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G81" s="21">
         <v>1577</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I81" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="J81" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="J81" s="21" t="s">
-        <v>329</v>
-      </c>
       <c r="K81" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L81" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L81" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M81" s="29" t="s">
         <v>1</v>
@@ -6978,40 +8114,40 @@
     </row>
     <row r="82" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C82" s="34">
         <v>80</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F82" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G82" s="21">
         <v>178</v>
       </c>
       <c r="H82" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J82" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K82" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L82" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L82" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M82" s="29" t="s">
         <v>1</v>
@@ -7037,40 +8173,40 @@
     </row>
     <row r="83" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C83" s="34">
         <v>81</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G83" s="21">
         <v>175</v>
       </c>
       <c r="H83" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I83" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="J83" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="J83" s="21" t="s">
-        <v>338</v>
-      </c>
       <c r="K83" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L83" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L83" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M83" s="29" t="s">
         <v>1</v>
@@ -7096,40 +8232,40 @@
     </row>
     <row r="84" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C84" s="34">
         <v>82</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F84" s="35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G84" s="21">
         <v>139</v>
       </c>
       <c r="H84" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J84" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K84" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L84" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L84" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M84" s="29" t="s">
         <v>1</v>
@@ -7155,40 +8291,40 @@
     </row>
     <row r="85" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C85" s="34">
         <v>83</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E85" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="F85" s="26" t="s">
         <v>344</v>
-      </c>
-      <c r="F85" s="26" t="s">
-        <v>345</v>
       </c>
       <c r="G85" s="21">
         <v>40</v>
       </c>
       <c r="H85" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I85" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="J85" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="J85" s="21" t="s">
-        <v>347</v>
-      </c>
       <c r="K85" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L85" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L85" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M85" s="29" t="s">
         <v>1</v>
@@ -7214,40 +8350,40 @@
     </row>
     <row r="86" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C86" s="34">
         <v>84</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E86" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="F86" s="26" t="s">
         <v>348</v>
-      </c>
-      <c r="F86" s="26" t="s">
-        <v>349</v>
       </c>
       <c r="G86" s="21">
         <v>78</v>
       </c>
       <c r="H86" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I86" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="J86" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="J86" s="21" t="s">
-        <v>351</v>
-      </c>
       <c r="K86" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L86" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L86" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M86" s="29" t="s">
         <v>1</v>
@@ -7273,40 +8409,40 @@
     </row>
     <row r="87" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C87" s="34">
         <v>85</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E87" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="F87" s="26" t="s">
         <v>352</v>
-      </c>
-      <c r="F87" s="26" t="s">
-        <v>353</v>
       </c>
       <c r="G87" s="21">
         <v>317</v>
       </c>
       <c r="H87" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I87" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="J87" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="J87" s="30" t="s">
-        <v>355</v>
-      </c>
       <c r="K87" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L87" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L87" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M87" s="29" t="s">
         <v>1</v>
@@ -7332,40 +8468,40 @@
     </row>
     <row r="88" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C88" s="34">
         <v>86</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E88" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="F88" s="30" t="s">
         <v>356</v>
-      </c>
-      <c r="F88" s="30" t="s">
-        <v>357</v>
       </c>
       <c r="G88" s="30">
         <v>723</v>
       </c>
       <c r="H88" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I88" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="J88" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="J88" s="21" t="s">
-        <v>359</v>
-      </c>
       <c r="K88" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L88" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L88" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M88" s="29" t="s">
         <v>1</v>
@@ -7391,40 +8527,40 @@
     </row>
     <row r="89" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C89" s="34">
         <v>87</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E89" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="F89" s="23" t="s">
         <v>360</v>
-      </c>
-      <c r="F89" s="23" t="s">
-        <v>361</v>
       </c>
       <c r="G89" s="30">
         <v>775</v>
       </c>
       <c r="H89" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I89" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="J89" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="J89" s="30" t="s">
-        <v>363</v>
-      </c>
       <c r="K89" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L89" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L89" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M89" s="29" t="s">
         <v>1</v>
@@ -7450,40 +8586,40 @@
     </row>
     <row r="90" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C90" s="34">
         <v>88</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E90" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="F90" s="21" t="s">
         <v>364</v>
-      </c>
-      <c r="F90" s="21" t="s">
-        <v>365</v>
       </c>
       <c r="G90" s="30">
         <v>33</v>
       </c>
       <c r="H90" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I90" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="J90" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="J90" s="21" t="s">
-        <v>367</v>
-      </c>
       <c r="K90" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L90" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L90" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M90" s="29" t="s">
         <v>1</v>
@@ -7509,40 +8645,40 @@
     </row>
     <row r="91" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C91" s="34">
         <v>89</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E91" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F91" s="30" t="s">
         <v>368</v>
-      </c>
-      <c r="F91" s="30" t="s">
-        <v>369</v>
       </c>
       <c r="G91" s="21">
         <v>318</v>
       </c>
       <c r="H91" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I91" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="J91" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="J91" s="21" t="s">
-        <v>371</v>
-      </c>
       <c r="K91" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L91" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L91" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M91" s="29" t="s">
         <v>1</v>
@@ -7568,40 +8704,40 @@
     </row>
     <row r="92" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C92" s="34">
         <v>90</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F92" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G92" s="21">
         <v>450</v>
       </c>
       <c r="H92" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I92" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="J92" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="J92" s="21" t="s">
-        <v>374</v>
-      </c>
       <c r="K92" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L92" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L92" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M92" s="29" t="s">
         <v>1</v>
@@ -7627,40 +8763,40 @@
     </row>
     <row r="93" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C93" s="34">
         <v>91</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E93" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="F93" s="30" t="s">
         <v>376</v>
-      </c>
-      <c r="F93" s="30" t="s">
-        <v>377</v>
       </c>
       <c r="G93" s="21">
         <v>750</v>
       </c>
       <c r="H93" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I93" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="J93" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="J93" s="21" t="s">
-        <v>379</v>
-      </c>
       <c r="K93" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L93" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L93" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M93" s="29" t="s">
         <v>1</v>
@@ -7686,40 +8822,40 @@
     </row>
     <row r="94" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="34">
         <v>92</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E94" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="F94" s="30" t="s">
         <v>380</v>
-      </c>
-      <c r="F94" s="30" t="s">
-        <v>381</v>
       </c>
       <c r="G94" s="21">
         <v>60</v>
       </c>
       <c r="H94" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I94" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="J94" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="J94" s="21" t="s">
-        <v>383</v>
-      </c>
       <c r="K94" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L94" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L94" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M94" s="29" t="s">
         <v>1</v>
@@ -7745,40 +8881,40 @@
     </row>
     <row r="95" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C95" s="34">
         <v>93</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E95" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="F95" s="30" t="s">
         <v>384</v>
-      </c>
-      <c r="F95" s="30" t="s">
-        <v>385</v>
       </c>
       <c r="G95" s="21">
         <v>533</v>
       </c>
       <c r="H95" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I95" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="J95" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="J95" s="21" t="s">
-        <v>387</v>
-      </c>
       <c r="K95" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L95" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L95" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M95" s="29" t="s">
         <v>1</v>
@@ -7804,40 +8940,40 @@
     </row>
     <row r="96" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C96" s="34">
         <v>94</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F96" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G96" s="21">
         <v>225</v>
       </c>
       <c r="H96" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I96" s="30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J96" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K96" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L96" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L96" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M96" s="29" t="s">
         <v>1</v>
@@ -7863,40 +8999,40 @@
     </row>
     <row r="97" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C97" s="34">
         <v>95</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G97" s="21">
         <v>70</v>
       </c>
       <c r="H97" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I97" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="J97" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="J97" s="21" t="s">
-        <v>393</v>
-      </c>
       <c r="K97" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L97" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L97" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M97" s="29" t="s">
         <v>1</v>
@@ -7922,40 +9058,40 @@
     </row>
     <row r="98" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B98" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C98" s="34">
         <v>96</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F98" s="30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G98" s="21">
         <v>515</v>
       </c>
       <c r="H98" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I98" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="J98" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="J98" s="21" t="s">
-        <v>397</v>
-      </c>
       <c r="K98" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L98" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L98" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M98" s="29" t="s">
         <v>1</v>
@@ -7981,40 +9117,40 @@
     </row>
     <row r="99" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C99" s="34">
         <v>97</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E99" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="F99" s="30" t="s">
         <v>399</v>
-      </c>
-      <c r="F99" s="30" t="s">
-        <v>400</v>
       </c>
       <c r="G99" s="21">
         <v>163</v>
       </c>
       <c r="H99" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I99" s="30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J99" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K99" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L99" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L99" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M99" s="29" t="s">
         <v>1</v>
@@ -8040,40 +9176,40 @@
     </row>
     <row r="100" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C100" s="34">
         <v>98</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E100" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F100" s="23" t="s">
         <v>402</v>
-      </c>
-      <c r="F100" s="23" t="s">
-        <v>403</v>
       </c>
       <c r="G100" s="21">
         <v>255</v>
       </c>
       <c r="H100" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I100" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="J100" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="J100" s="21" t="s">
-        <v>405</v>
-      </c>
       <c r="K100" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L100" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L100" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M100" s="29" t="s">
         <v>1</v>
@@ -8099,40 +9235,40 @@
     </row>
     <row r="101" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C101" s="34">
         <v>99</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E101" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="F101" s="30" t="s">
         <v>406</v>
-      </c>
-      <c r="F101" s="30" t="s">
-        <v>407</v>
       </c>
       <c r="G101" s="21">
         <v>1000</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I101" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="J101" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="J101" s="21" t="s">
-        <v>409</v>
-      </c>
       <c r="K101" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L101" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L101" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M101" s="29" t="s">
         <v>1</v>
@@ -8158,40 +9294,40 @@
     </row>
     <row r="102" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B102" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C102" s="34">
         <v>100</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E102" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="F102" s="30" t="s">
         <v>410</v>
-      </c>
-      <c r="F102" s="30" t="s">
-        <v>411</v>
       </c>
       <c r="G102" s="21">
         <v>70</v>
       </c>
       <c r="H102" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I102" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="J102" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="J102" s="21" t="s">
-        <v>413</v>
-      </c>
       <c r="K102" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L102" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L102" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M102" s="29" t="s">
         <v>1</v>
@@ -8217,40 +9353,40 @@
     </row>
     <row r="103" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C103" s="34">
         <v>101</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E103" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="F103" s="23" t="s">
         <v>581</v>
-      </c>
-      <c r="F103" s="23" t="s">
-        <v>582</v>
       </c>
       <c r="G103" s="21">
         <v>74</v>
       </c>
       <c r="H103" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I103" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="J103" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="J103" s="21" t="s">
-        <v>584</v>
-      </c>
       <c r="K103" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L103" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L103" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M103" s="29" t="s">
         <v>1</v>
@@ -8276,40 +9412,40 @@
     </row>
     <row r="104" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C104" s="34">
         <v>102</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E104" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="F104" s="30" t="s">
         <v>418</v>
-      </c>
-      <c r="F104" s="30" t="s">
-        <v>419</v>
       </c>
       <c r="G104" s="21">
         <v>329</v>
       </c>
       <c r="H104" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I104" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="J104" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="J104" s="21" t="s">
-        <v>421</v>
-      </c>
       <c r="K104" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L104" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L104" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M104" s="29" t="s">
         <v>1</v>
@@ -8335,40 +9471,40 @@
     </row>
     <row r="105" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B105" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C105" s="34">
         <v>103</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E105" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="F105" s="30" t="s">
         <v>422</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>423</v>
       </c>
       <c r="G105" s="21">
         <v>130</v>
       </c>
       <c r="H105" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I105" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="J105" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="J105" s="21" t="s">
-        <v>425</v>
-      </c>
       <c r="K105" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L105" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L105" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M105" s="29" t="s">
         <v>1</v>
@@ -8394,40 +9530,40 @@
     </row>
     <row r="106" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B106" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C106" s="34">
         <v>104</v>
       </c>
       <c r="D106" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E106" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="F106" s="23" t="s">
         <v>426</v>
-      </c>
-      <c r="F106" s="23" t="s">
-        <v>427</v>
       </c>
       <c r="G106" s="21">
         <v>528</v>
       </c>
       <c r="H106" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I106" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="J106" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="J106" s="21" t="s">
-        <v>429</v>
-      </c>
       <c r="K106" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L106" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L106" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M106" s="29" t="s">
         <v>1</v>
@@ -8453,40 +9589,40 @@
     </row>
     <row r="107" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C107" s="34">
         <v>105</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E107" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="F107" s="30" t="s">
         <v>430</v>
-      </c>
-      <c r="F107" s="30" t="s">
-        <v>431</v>
       </c>
       <c r="G107" s="21">
         <v>10</v>
       </c>
       <c r="H107" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I107" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="J107" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="J107" s="21" t="s">
-        <v>475</v>
-      </c>
       <c r="K107" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L107" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L107" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M107" s="29" t="s">
         <v>1</v>
@@ -8512,40 +9648,40 @@
     </row>
     <row r="108" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A108" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B108" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C108" s="34">
         <v>106</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E108" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="F108" s="23" t="s">
         <v>432</v>
-      </c>
-      <c r="F108" s="23" t="s">
-        <v>433</v>
       </c>
       <c r="G108" s="21">
         <v>75</v>
       </c>
       <c r="H108" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I108" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="J108" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="J108" s="21" t="s">
-        <v>435</v>
-      </c>
       <c r="K108" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L108" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L108" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M108" s="29" t="s">
         <v>1</v>
@@ -8571,40 +9707,40 @@
     </row>
     <row r="109" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B109" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C109" s="34">
         <v>107</v>
       </c>
       <c r="D109" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E109" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="F109" s="30" t="s">
         <v>436</v>
-      </c>
-      <c r="F109" s="30" t="s">
-        <v>437</v>
       </c>
       <c r="G109" s="21">
         <v>60</v>
       </c>
       <c r="H109" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I109" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="J109" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="J109" s="21" t="s">
-        <v>439</v>
-      </c>
       <c r="K109" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L109" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L109" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M109" s="29" t="s">
         <v>1</v>
@@ -8630,40 +9766,40 @@
     </row>
     <row r="110" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C110" s="34">
         <v>108</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E110" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="F110" s="30" t="s">
         <v>414</v>
-      </c>
-      <c r="F110" s="30" t="s">
-        <v>415</v>
       </c>
       <c r="G110" s="21">
         <v>3655</v>
       </c>
       <c r="H110" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I110" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="J110" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="J110" s="21" t="s">
-        <v>417</v>
-      </c>
       <c r="K110" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L110" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L110" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M110" s="29" t="s">
         <v>1</v>
@@ -8689,40 +9825,40 @@
     </row>
     <row r="111" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A111" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B111" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C111" s="34">
         <v>109</v>
       </c>
       <c r="D111" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="E111" s="26" t="s">
         <v>440</v>
       </c>
-      <c r="E111" s="26" t="s">
+      <c r="F111" s="30" t="s">
         <v>441</v>
-      </c>
-      <c r="F111" s="30" t="s">
-        <v>442</v>
       </c>
       <c r="G111" s="21">
         <v>341</v>
       </c>
       <c r="H111" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="I111" s="30" t="s">
         <v>443</v>
       </c>
-      <c r="I111" s="30" t="s">
+      <c r="J111" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="J111" s="21" t="s">
-        <v>445</v>
-      </c>
       <c r="K111" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L111" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L111" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M111" s="29" t="s">
         <v>1</v>
@@ -8748,40 +9884,40 @@
     </row>
     <row r="112" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A112" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B112" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C112" s="34">
         <v>110</v>
       </c>
       <c r="D112" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E112" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="F112" s="21" t="s">
         <v>446</v>
-      </c>
-      <c r="F112" s="21" t="s">
-        <v>447</v>
       </c>
       <c r="G112" s="21">
         <v>95</v>
       </c>
       <c r="H112" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I112" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="J112" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="J112" s="21" t="s">
-        <v>449</v>
-      </c>
       <c r="K112" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L112" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L112" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M112" s="29" t="s">
         <v>1</v>
@@ -8807,40 +9943,40 @@
     </row>
     <row r="113" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A113" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B113" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C113" s="34">
         <v>111</v>
       </c>
       <c r="D113" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E113" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="F113" s="21" t="s">
         <v>450</v>
-      </c>
-      <c r="F113" s="21" t="s">
-        <v>451</v>
       </c>
       <c r="G113" s="21">
         <v>544</v>
       </c>
       <c r="H113" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I113" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="J113" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="J113" s="21" t="s">
-        <v>453</v>
-      </c>
       <c r="K113" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L113" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L113" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M113" s="29" t="s">
         <v>1</v>
@@ -8866,40 +10002,40 @@
     </row>
     <row r="114" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A114" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B114" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C114" s="34">
         <v>112</v>
       </c>
       <c r="D114" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E114" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F114" s="30" t="s">
         <v>454</v>
-      </c>
-      <c r="F114" s="30" t="s">
-        <v>455</v>
       </c>
       <c r="G114" s="21">
         <v>123</v>
       </c>
       <c r="H114" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I114" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="J114" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="J114" s="21" t="s">
-        <v>457</v>
-      </c>
       <c r="K114" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L114" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L114" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M114" s="29" t="s">
         <v>1</v>
@@ -8925,40 +10061,40 @@
     </row>
     <row r="115" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A115" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B115" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C115" s="34">
         <v>113</v>
       </c>
       <c r="D115" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E115" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="F115" s="30" t="s">
         <v>458</v>
-      </c>
-      <c r="F115" s="30" t="s">
-        <v>459</v>
       </c>
       <c r="G115" s="21">
         <v>1863</v>
       </c>
       <c r="H115" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I115" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="J115" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="J115" s="21" t="s">
-        <v>461</v>
-      </c>
       <c r="K115" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L115" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L115" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M115" s="29" t="s">
         <v>1</v>
@@ -8984,40 +10120,40 @@
     </row>
     <row r="116" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A116" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B116" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C116" s="34">
         <v>114</v>
       </c>
       <c r="D116" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E116" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="F116" s="30" t="s">
         <v>462</v>
-      </c>
-      <c r="F116" s="30" t="s">
-        <v>463</v>
       </c>
       <c r="G116" s="21">
         <v>80</v>
       </c>
       <c r="H116" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I116" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="J116" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J116" s="21" t="s">
-        <v>465</v>
-      </c>
       <c r="K116" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L116" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L116" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M116" s="29" t="s">
         <v>1</v>
@@ -9043,40 +10179,40 @@
     </row>
     <row r="117" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A117" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B117" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C117" s="34">
         <v>115</v>
       </c>
       <c r="D117" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E117" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="F117" s="23" t="s">
         <v>466</v>
-      </c>
-      <c r="F117" s="23" t="s">
-        <v>467</v>
       </c>
       <c r="G117" s="21">
         <v>54</v>
       </c>
       <c r="H117" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I117" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="J117" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="J117" s="21" t="s">
-        <v>469</v>
-      </c>
       <c r="K117" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L117" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L117" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M117" s="29" t="s">
         <v>1</v>
@@ -9102,40 +10238,40 @@
     </row>
     <row r="118" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A118" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B118" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C118" s="34">
         <v>116</v>
       </c>
       <c r="D118" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E118" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="F118" s="23" t="s">
         <v>470</v>
-      </c>
-      <c r="F118" s="23" t="s">
-        <v>471</v>
       </c>
       <c r="G118" s="21">
         <v>99</v>
       </c>
       <c r="H118" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I118" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="J118" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="J118" s="21" t="s">
-        <v>473</v>
-      </c>
       <c r="K118" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L118" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L118" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M118" s="29" t="s">
         <v>1</v>
@@ -9161,40 +10297,40 @@
     </row>
     <row r="119" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A119" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B119" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C119" s="34">
         <v>117</v>
       </c>
       <c r="D119" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E119" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="F119" s="30" t="s">
         <v>476</v>
-      </c>
-      <c r="F119" s="30" t="s">
-        <v>477</v>
       </c>
       <c r="G119" s="21">
         <v>612</v>
       </c>
       <c r="H119" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I119" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="J119" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="J119" s="21" t="s">
-        <v>479</v>
-      </c>
       <c r="K119" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L119" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L119" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M119" s="29" t="s">
         <v>1</v>
@@ -9220,40 +10356,40 @@
     </row>
     <row r="120" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A120" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C120" s="34">
         <v>118</v>
       </c>
       <c r="D120" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E120" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="F120" s="30" t="s">
         <v>480</v>
-      </c>
-      <c r="F120" s="30" t="s">
-        <v>481</v>
       </c>
       <c r="G120" s="21">
         <v>762</v>
       </c>
       <c r="H120" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I120" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="J120" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="J120" s="21" t="s">
-        <v>483</v>
-      </c>
       <c r="K120" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L120" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L120" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M120" s="29" t="s">
         <v>1</v>
@@ -9279,40 +10415,40 @@
     </row>
     <row r="121" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A121" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B121" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C121" s="34">
         <v>119</v>
       </c>
       <c r="D121" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E121" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="F121" s="23" t="s">
         <v>484</v>
-      </c>
-      <c r="F121" s="23" t="s">
-        <v>485</v>
       </c>
       <c r="G121" s="21">
         <v>209</v>
       </c>
       <c r="H121" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I121" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="J121" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="J121" s="21" t="s">
-        <v>487</v>
-      </c>
       <c r="K121" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L121" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L121" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M121" s="29" t="s">
         <v>1</v>
@@ -9338,40 +10474,40 @@
     </row>
     <row r="122" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A122" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B122" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C122" s="34">
         <v>120</v>
       </c>
       <c r="D122" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E122" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="F122" s="30" t="s">
         <v>488</v>
-      </c>
-      <c r="F122" s="30" t="s">
-        <v>489</v>
       </c>
       <c r="G122" s="21">
         <v>255</v>
       </c>
       <c r="H122" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I122" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="J122" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="J122" s="21" t="s">
-        <v>491</v>
-      </c>
       <c r="K122" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L122" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L122" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M122" s="29" t="s">
         <v>1</v>
@@ -9397,40 +10533,40 @@
     </row>
     <row r="123" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A123" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B123" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C123" s="34">
         <v>121</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E123" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="F123" s="30" t="s">
         <v>492</v>
-      </c>
-      <c r="F123" s="30" t="s">
-        <v>493</v>
       </c>
       <c r="G123" s="21">
         <v>87</v>
       </c>
       <c r="H123" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I123" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="J123" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="J123" s="21" t="s">
-        <v>495</v>
-      </c>
       <c r="K123" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L123" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L123" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M123" s="29" t="s">
         <v>1</v>
@@ -9456,40 +10592,40 @@
     </row>
     <row r="124" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A124" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C124" s="34">
         <v>122</v>
       </c>
       <c r="D124" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E124" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="F124" s="23" t="s">
         <v>496</v>
-      </c>
-      <c r="F124" s="23" t="s">
-        <v>497</v>
       </c>
       <c r="G124" s="21">
         <v>55</v>
       </c>
       <c r="H124" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I124" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="J124" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="J124" s="21" t="s">
-        <v>499</v>
-      </c>
       <c r="K124" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L124" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L124" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M124" s="29" t="s">
         <v>1</v>
@@ -9515,40 +10651,40 @@
     </row>
     <row r="125" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A125" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C125" s="34">
         <v>123</v>
       </c>
       <c r="D125" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E125" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="F125" s="23" t="s">
         <v>500</v>
-      </c>
-      <c r="F125" s="23" t="s">
-        <v>501</v>
       </c>
       <c r="G125" s="21">
         <v>30</v>
       </c>
       <c r="H125" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I125" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="J125" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="J125" s="21" t="s">
-        <v>503</v>
-      </c>
       <c r="K125" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L125" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L125" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M125" s="29" t="s">
         <v>1</v>
@@ -9574,40 +10710,40 @@
     </row>
     <row r="126" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A126" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C126" s="34">
         <v>124</v>
       </c>
       <c r="D126" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E126" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="F126" s="30" t="s">
         <v>504</v>
-      </c>
-      <c r="F126" s="30" t="s">
-        <v>505</v>
       </c>
       <c r="G126" s="21">
         <v>285</v>
       </c>
       <c r="H126" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I126" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="J126" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="J126" s="21" t="s">
-        <v>507</v>
-      </c>
       <c r="K126" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L126" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L126" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M126" s="29" t="s">
         <v>1</v>
@@ -9633,40 +10769,40 @@
     </row>
     <row r="127" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A127" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C127" s="34">
         <v>125</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E127" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="F127" s="30" t="s">
         <v>508</v>
-      </c>
-      <c r="F127" s="30" t="s">
-        <v>509</v>
       </c>
       <c r="G127" s="21">
         <v>540</v>
       </c>
       <c r="H127" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I127" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="J127" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="J127" s="21" t="s">
-        <v>511</v>
-      </c>
       <c r="K127" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L127" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L127" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M127" s="29" t="s">
         <v>1</v>
@@ -9692,40 +10828,40 @@
     </row>
     <row r="128" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A128" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C128" s="34">
         <v>126</v>
       </c>
       <c r="D128" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E128" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="F128" s="23" t="s">
         <v>512</v>
-      </c>
-      <c r="F128" s="23" t="s">
-        <v>513</v>
       </c>
       <c r="G128" s="21">
         <v>135</v>
       </c>
       <c r="H128" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I128" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="J128" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="J128" s="21" t="s">
-        <v>515</v>
-      </c>
       <c r="K128" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L128" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L128" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M128" s="29" t="s">
         <v>1</v>
@@ -9751,40 +10887,40 @@
     </row>
     <row r="129" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A129" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C129" s="34">
         <v>127</v>
       </c>
       <c r="D129" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E129" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="F129" s="30" t="s">
         <v>516</v>
-      </c>
-      <c r="F129" s="30" t="s">
-        <v>517</v>
       </c>
       <c r="G129" s="21">
         <v>48</v>
       </c>
       <c r="H129" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I129" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J129" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K129" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L129" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L129" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M129" s="29" t="s">
         <v>1</v>
@@ -9810,40 +10946,40 @@
     </row>
     <row r="130" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A130" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B130" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C130" s="34">
         <v>128</v>
       </c>
       <c r="D130" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E130" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="F130" s="23" t="s">
         <v>519</v>
-      </c>
-      <c r="F130" s="23" t="s">
-        <v>520</v>
       </c>
       <c r="G130" s="21">
         <v>241</v>
       </c>
       <c r="H130" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I130" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="J130" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="J130" s="21" t="s">
-        <v>522</v>
-      </c>
       <c r="K130" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L130" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L130" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M130" s="29" t="s">
         <v>1</v>
@@ -9869,40 +11005,40 @@
     </row>
     <row r="131" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A131" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C131" s="34">
         <v>129</v>
       </c>
       <c r="D131" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E131" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="F131" s="23" t="s">
         <v>523</v>
-      </c>
-      <c r="F131" s="23" t="s">
-        <v>524</v>
       </c>
       <c r="G131" s="21">
         <v>222</v>
       </c>
       <c r="H131" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I131" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="J131" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="J131" s="21" t="s">
-        <v>526</v>
-      </c>
       <c r="K131" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L131" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L131" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M131" s="29" t="s">
         <v>1</v>
@@ -9928,40 +11064,40 @@
     </row>
     <row r="132" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A132" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C132" s="34">
         <v>130</v>
       </c>
       <c r="D132" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E132" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="F132" s="30" t="s">
         <v>527</v>
-      </c>
-      <c r="F132" s="30" t="s">
-        <v>528</v>
       </c>
       <c r="G132" s="21">
         <v>230</v>
       </c>
       <c r="H132" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I132" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="J132" s="21" t="s">
         <v>529</v>
       </c>
-      <c r="J132" s="21" t="s">
-        <v>530</v>
-      </c>
       <c r="K132" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L132" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L132" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M132" s="29" t="s">
         <v>1</v>
@@ -9987,40 +11123,40 @@
     </row>
     <row r="133" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A133" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C133" s="34">
         <v>131</v>
       </c>
       <c r="D133" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E133" s="26" t="s">
+        <v>530</v>
+      </c>
+      <c r="F133" s="23" t="s">
         <v>531</v>
-      </c>
-      <c r="F133" s="23" t="s">
-        <v>532</v>
       </c>
       <c r="G133" s="21">
         <v>507</v>
       </c>
       <c r="H133" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I133" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="J133" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="J133" s="21" t="s">
-        <v>534</v>
-      </c>
       <c r="K133" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L133" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L133" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M133" s="29" t="s">
         <v>1</v>
@@ -10046,40 +11182,40 @@
     </row>
     <row r="134" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A134" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C134" s="34">
         <v>132</v>
       </c>
       <c r="D134" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E134" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="F134" s="30" t="s">
         <v>535</v>
-      </c>
-      <c r="F134" s="30" t="s">
-        <v>536</v>
       </c>
       <c r="G134" s="21">
         <v>99</v>
       </c>
       <c r="H134" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I134" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="J134" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="J134" s="21" t="s">
-        <v>538</v>
-      </c>
       <c r="K134" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L134" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L134" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M134" s="29" t="s">
         <v>1</v>
@@ -10105,40 +11241,40 @@
     </row>
     <row r="135" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A135" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C135" s="34">
         <v>133</v>
       </c>
       <c r="D135" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E135" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="F135" s="23" t="s">
         <v>539</v>
-      </c>
-      <c r="F135" s="23" t="s">
-        <v>540</v>
       </c>
       <c r="G135" s="21">
         <v>226</v>
       </c>
       <c r="H135" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I135" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="J135" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="J135" s="21" t="s">
-        <v>542</v>
-      </c>
       <c r="K135" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L135" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L135" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M135" s="29" t="s">
         <v>1</v>
@@ -10164,40 +11300,40 @@
     </row>
     <row r="136" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A136" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C136" s="34">
         <v>134</v>
       </c>
       <c r="D136" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E136" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="F136" s="23" t="s">
         <v>543</v>
-      </c>
-      <c r="F136" s="23" t="s">
-        <v>544</v>
       </c>
       <c r="G136" s="21">
         <v>71</v>
       </c>
       <c r="H136" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I136" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="J136" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="J136" s="21" t="s">
-        <v>546</v>
-      </c>
       <c r="K136" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L136" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L136" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M136" s="29" t="s">
         <v>1</v>
@@ -10223,40 +11359,40 @@
     </row>
     <row r="137" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A137" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C137" s="34">
         <v>135</v>
       </c>
       <c r="D137" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E137" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="F137" s="30" t="s">
         <v>547</v>
-      </c>
-      <c r="F137" s="30" t="s">
-        <v>548</v>
       </c>
       <c r="G137" s="21">
         <v>325</v>
       </c>
       <c r="H137" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I137" s="21" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J137" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K137" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L137" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L137" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M137" s="29" t="s">
         <v>1</v>
@@ -10282,40 +11418,40 @@
     </row>
     <row r="138" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A138" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C138" s="34">
         <v>136</v>
       </c>
       <c r="D138" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E138" s="26" t="s">
+        <v>549</v>
+      </c>
+      <c r="F138" s="23" t="s">
         <v>550</v>
-      </c>
-      <c r="F138" s="23" t="s">
-        <v>551</v>
       </c>
       <c r="G138" s="21">
         <v>486</v>
       </c>
       <c r="H138" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I138" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="J138" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="J138" s="21" t="s">
-        <v>553</v>
-      </c>
       <c r="K138" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L138" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L138" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M138" s="29" t="s">
         <v>1</v>
@@ -10341,40 +11477,40 @@
     </row>
     <row r="139" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A139" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C139" s="34">
         <v>137</v>
       </c>
       <c r="D139" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E139" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="F139" s="30" t="s">
         <v>554</v>
-      </c>
-      <c r="F139" s="30" t="s">
-        <v>555</v>
       </c>
       <c r="G139" s="21">
         <v>91</v>
       </c>
       <c r="H139" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I139" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="J139" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="J139" s="21" t="s">
-        <v>557</v>
-      </c>
       <c r="K139" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L139" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L139" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M139" s="29" t="s">
         <v>1</v>
@@ -10400,40 +11536,40 @@
     </row>
     <row r="140" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A140" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C140" s="34">
         <v>138</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E140" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="F140" s="30" t="s">
         <v>558</v>
-      </c>
-      <c r="F140" s="30" t="s">
-        <v>559</v>
       </c>
       <c r="G140" s="21">
         <v>342</v>
       </c>
       <c r="H140" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I140" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="J140" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="J140" s="21" t="s">
-        <v>561</v>
-      </c>
       <c r="K140" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L140" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L140" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M140" s="29" t="s">
         <v>1</v>
@@ -10459,40 +11595,40 @@
     </row>
     <row r="141" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A141" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C141" s="34">
         <v>139</v>
       </c>
       <c r="D141" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E141" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="F141" s="30" t="s">
         <v>562</v>
-      </c>
-      <c r="F141" s="30" t="s">
-        <v>563</v>
       </c>
       <c r="G141" s="21">
         <v>73</v>
       </c>
       <c r="H141" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I141" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="J141" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="J141" s="21" t="s">
-        <v>565</v>
-      </c>
       <c r="K141" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L141" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L141" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M141" s="29" t="s">
         <v>1</v>
@@ -10518,40 +11654,40 @@
     </row>
     <row r="142" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A142" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C142" s="34">
         <v>140</v>
       </c>
       <c r="D142" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E142" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="F142" s="21" t="s">
         <v>566</v>
-      </c>
-      <c r="F142" s="21" t="s">
-        <v>567</v>
       </c>
       <c r="G142" s="21">
         <v>341</v>
       </c>
       <c r="H142" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I142" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="J142" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="J142" s="21" t="s">
-        <v>569</v>
-      </c>
       <c r="K142" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L142" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L142" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M142" s="29" t="s">
         <v>1</v>
@@ -10577,40 +11713,40 @@
     </row>
     <row r="143" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A143" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C143" s="34">
         <v>141</v>
       </c>
       <c r="D143" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E143" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="F143" s="30" t="s">
         <v>570</v>
-      </c>
-      <c r="F143" s="30" t="s">
-        <v>571</v>
       </c>
       <c r="G143" s="21">
         <v>589</v>
       </c>
       <c r="H143" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I143" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="J143" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="J143" s="21" t="s">
-        <v>573</v>
-      </c>
       <c r="K143" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L143" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L143" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M143" s="29" t="s">
         <v>1</v>
@@ -10636,40 +11772,40 @@
     </row>
     <row r="144" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A144" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C144" s="34">
         <v>142</v>
       </c>
       <c r="D144" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E144" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="F144" s="23" t="s">
         <v>574</v>
-      </c>
-      <c r="F144" s="23" t="s">
-        <v>575</v>
       </c>
       <c r="G144" s="21">
         <v>440</v>
       </c>
       <c r="H144" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I144" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="J144" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="J144" s="21" t="s">
-        <v>577</v>
-      </c>
       <c r="K144" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L144" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L144" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M144" s="29" t="s">
         <v>1</v>
@@ -10695,40 +11831,40 @@
     </row>
     <row r="145" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A145" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C145" s="34">
         <v>143</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E145" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="F145" s="23" t="s">
         <v>578</v>
-      </c>
-      <c r="F145" s="23" t="s">
-        <v>579</v>
       </c>
       <c r="G145" s="21">
         <v>94</v>
       </c>
       <c r="H145" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I145" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J145" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K145" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L145" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L145" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M145" s="29" t="s">
         <v>1</v>
@@ -10754,28 +11890,40 @@
     </row>
     <row r="146" spans="1:31" ht="20.100000000000001" customHeight="1">
       <c r="A146" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C146" s="34">
         <v>144</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="E146" s="26"/>
-      <c r="F146" s="25"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="22"/>
-      <c r="I146" s="25"/>
-      <c r="J146" s="22"/>
+        <v>202</v>
+      </c>
+      <c r="E146" s="26" t="s">
+        <v>852</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>851</v>
+      </c>
+      <c r="G146" s="21">
+        <v>900</v>
+      </c>
+      <c r="H146" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="I146" s="25" t="s">
+        <v>854</v>
+      </c>
+      <c r="J146" s="22" t="s">
+        <v>853</v>
+      </c>
       <c r="K146" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L146" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="L146" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="M146" s="29" t="s">
         <v>1</v>
